--- a/Tester Results/ALL_VAR_CORRELATIONS.xlsx
+++ b/Tester Results/ALL_VAR_CORRELATIONS.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E91"/>
+  <dimension ref="A1:E111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -652,22 +652,22 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>peakTime</t>
+          <t>reactionTime</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>reactionTime</t>
+          <t>prepulse_intensity</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-0.03675932451552016</v>
+        <v>-0.2200880076601208</v>
       </c>
       <c r="D11" t="n">
-        <v>0.5096816721186384</v>
+        <v>0.0001036371579573933</v>
       </c>
       <c r="E11" t="n">
-        <v>324</v>
+        <v>306</v>
       </c>
     </row>
     <row r="12">
@@ -678,14 +678,14 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>difference</t>
+          <t>reactionTime</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.6833323757453084</v>
+        <v>-0.03675932451552016</v>
       </c>
       <c r="D12" t="n">
-        <v>6.638437475166306e-46</v>
+        <v>0.5096816721186384</v>
       </c>
       <c r="E12" t="n">
         <v>324</v>
@@ -699,14 +699,14 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>peakValue</t>
+          <t>difference</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.02642327408287458</v>
+        <v>0.6833323757453084</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6355972725261866</v>
+        <v>6.638437475166306e-46</v>
       </c>
       <c r="E13" t="n">
         <v>324</v>
@@ -720,14 +720,14 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>PTPA</t>
+          <t>peakValue</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.01831694648481384</v>
+        <v>0.02642327408287458</v>
       </c>
       <c r="D14" t="n">
-        <v>0.7425651519716941</v>
+        <v>0.6355972725261866</v>
       </c>
       <c r="E14" t="n">
         <v>324</v>
@@ -741,14 +741,14 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>PTTA</t>
+          <t>PTPA</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.02198114049129878</v>
+        <v>0.01831694648481384</v>
       </c>
       <c r="D15" t="n">
-        <v>0.6934489064461434</v>
+        <v>0.7425651519716941</v>
       </c>
       <c r="E15" t="n">
         <v>324</v>
@@ -762,14 +762,14 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>RMS</t>
+          <t>PTTA</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.07371888182879792</v>
+        <v>0.02198114049129878</v>
       </c>
       <c r="D16" t="n">
-        <v>0.1856316047312557</v>
+        <v>0.6934489064461434</v>
       </c>
       <c r="E16" t="n">
         <v>324</v>
@@ -783,14 +783,14 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>tau</t>
+          <t>RMS</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.1604258341398364</v>
+        <v>0.07371888182879792</v>
       </c>
       <c r="D17" t="n">
-        <v>0.003788208172312706</v>
+        <v>0.1856316047312557</v>
       </c>
       <c r="E17" t="n">
         <v>324</v>
@@ -804,14 +804,14 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>AUC</t>
+          <t>tau</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.08231772652059781</v>
+        <v>0.1604258341398364</v>
       </c>
       <c r="D18" t="n">
-        <v>0.1392732829440573</v>
+        <v>0.003788208172312706</v>
       </c>
       <c r="E18" t="n">
         <v>324</v>
@@ -825,59 +825,59 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>percentPPI</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.03579197499173792</v>
+        <v>0.08231772652059781</v>
       </c>
       <c r="D19" t="n">
-        <v>0.5327974887068463</v>
+        <v>0.1392732829440573</v>
       </c>
       <c r="E19" t="n">
-        <v>306</v>
+        <v>324</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>difference</t>
+          <t>peakTime</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>reactionTime</t>
+          <t>percentPPI</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-0.6685001195759162</v>
+        <v>0.03579197499173792</v>
       </c>
       <c r="D20" t="n">
-        <v>2.589872747627608e-43</v>
+        <v>0.5327974887068463</v>
       </c>
       <c r="E20" t="n">
-        <v>324</v>
+        <v>306</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>difference</t>
+          <t>peakTime</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>peakTime</t>
+          <t>prepulse_intensity</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.6833323757453084</v>
+        <v>-0.07983990202631203</v>
       </c>
       <c r="D21" t="n">
-        <v>6.638437475166306e-46</v>
+        <v>0.1635784247885434</v>
       </c>
       <c r="E21" t="n">
-        <v>324</v>
+        <v>306</v>
       </c>
     </row>
     <row r="22">
@@ -888,14 +888,14 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>peakValue</t>
+          <t>reactionTime</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.3657026322248481</v>
+        <v>-0.6685001195759162</v>
       </c>
       <c r="D22" t="n">
-        <v>1.090828287991331e-11</v>
+        <v>2.589872747627608e-43</v>
       </c>
       <c r="E22" t="n">
         <v>324</v>
@@ -909,14 +909,14 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>PTPA</t>
+          <t>peakTime</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.3586161081252614</v>
+        <v>0.6833323757453084</v>
       </c>
       <c r="D23" t="n">
-        <v>2.877241276025363e-11</v>
+        <v>6.638437475166306e-46</v>
       </c>
       <c r="E23" t="n">
         <v>324</v>
@@ -930,14 +930,14 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>PTTA</t>
+          <t>peakValue</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.3648335589708881</v>
+        <v>0.3657026322248481</v>
       </c>
       <c r="D24" t="n">
-        <v>1.23019286481984e-11</v>
+        <v>1.090828287991331e-11</v>
       </c>
       <c r="E24" t="n">
         <v>324</v>
@@ -951,14 +951,14 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>RMS</t>
+          <t>PTPA</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.4101406426089916</v>
+        <v>0.3586161081252614</v>
       </c>
       <c r="D25" t="n">
-        <v>1.412874734407792e-14</v>
+        <v>2.877241276025363e-11</v>
       </c>
       <c r="E25" t="n">
         <v>324</v>
@@ -972,14 +972,14 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>tau</t>
+          <t>PTTA</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.04391166978725793</v>
+        <v>0.3648335589708881</v>
       </c>
       <c r="D26" t="n">
-        <v>0.4308515807827019</v>
+        <v>1.23019286481984e-11</v>
       </c>
       <c r="E26" t="n">
         <v>324</v>
@@ -993,14 +993,14 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>AUC</t>
+          <t>RMS</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.4027230895766142</v>
+        <v>0.4101406426089916</v>
       </c>
       <c r="D27" t="n">
-        <v>4.600172341288581e-14</v>
+        <v>1.412874734407792e-14</v>
       </c>
       <c r="E27" t="n">
         <v>324</v>
@@ -1014,35 +1014,35 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>percentPPI</t>
+          <t>tau</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.008482784652718756</v>
+        <v>0.04391166978725793</v>
       </c>
       <c r="D28" t="n">
-        <v>0.8825136444448201</v>
+        <v>0.4308515807827019</v>
       </c>
       <c r="E28" t="n">
-        <v>306</v>
+        <v>324</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>peakValue</t>
+          <t>difference</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>reactionTime</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>-0.5366327396638366</v>
+        <v>0.4027230895766142</v>
       </c>
       <c r="D29" t="n">
-        <v>1.467262702087708e-25</v>
+        <v>4.600172341288581e-14</v>
       </c>
       <c r="E29" t="n">
         <v>324</v>
@@ -1051,43 +1051,43 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>peakValue</t>
+          <t>difference</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>peakTime</t>
+          <t>percentPPI</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.02642327408287458</v>
+        <v>0.008482784652718756</v>
       </c>
       <c r="D30" t="n">
-        <v>0.6355972725261866</v>
+        <v>0.8825136444448201</v>
       </c>
       <c r="E30" t="n">
-        <v>324</v>
+        <v>306</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>peakValue</t>
+          <t>difference</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>difference</t>
+          <t>prepulse_intensity</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.3657026322248481</v>
+        <v>0.1020516514807506</v>
       </c>
       <c r="D31" t="n">
-        <v>1.090828287991331e-11</v>
+        <v>0.07466362867706661</v>
       </c>
       <c r="E31" t="n">
-        <v>324</v>
+        <v>306</v>
       </c>
     </row>
     <row r="32">
@@ -1098,14 +1098,14 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>PTPA</t>
+          <t>reactionTime</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.9996349206433556</v>
+        <v>-0.5366327396638366</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>1.467262702087708e-25</v>
       </c>
       <c r="E32" t="n">
         <v>324</v>
@@ -1119,14 +1119,14 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>PTTA</t>
+          <t>peakTime</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.9962047267192415</v>
+        <v>0.02642327408287458</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>0.6355972725261866</v>
       </c>
       <c r="E33" t="n">
         <v>324</v>
@@ -1140,14 +1140,14 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>RMS</t>
+          <t>difference</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.9744697617510893</v>
+        <v>0.3657026322248481</v>
       </c>
       <c r="D34" t="n">
-        <v>5.783590831327313e-211</v>
+        <v>1.090828287991331e-11</v>
       </c>
       <c r="E34" t="n">
         <v>324</v>
@@ -1161,14 +1161,14 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>tau</t>
+          <t>PTPA</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>-0.3608237401916921</v>
+        <v>0.9996349206433556</v>
       </c>
       <c r="D35" t="n">
-        <v>2.132392927712678e-11</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>324</v>
@@ -1182,14 +1182,14 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>AUC</t>
+          <t>PTTA</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.8666803560408877</v>
+        <v>0.9962047267192415</v>
       </c>
       <c r="D36" t="n">
-        <v>2.881333234564207e-99</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>324</v>
@@ -1203,35 +1203,35 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>percentPPI</t>
+          <t>RMS</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>-0.1885675814846345</v>
+        <v>0.9744697617510893</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0009168492015015011</v>
+        <v>5.783590831327313e-211</v>
       </c>
       <c r="E37" t="n">
-        <v>306</v>
+        <v>324</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>PTPA</t>
+          <t>peakValue</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>reactionTime</t>
+          <t>tau</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>-0.5358830559112745</v>
+        <v>-0.3608237401916921</v>
       </c>
       <c r="D38" t="n">
-        <v>1.762040888629575e-25</v>
+        <v>2.132392927712678e-11</v>
       </c>
       <c r="E38" t="n">
         <v>324</v>
@@ -1240,19 +1240,19 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>PTPA</t>
+          <t>peakValue</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>peakTime</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.01831694648481384</v>
+        <v>0.8666803560408877</v>
       </c>
       <c r="D39" t="n">
-        <v>0.7425651519716943</v>
+        <v>2.881333234564207e-99</v>
       </c>
       <c r="E39" t="n">
         <v>324</v>
@@ -1261,43 +1261,43 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>PTPA</t>
+          <t>peakValue</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>difference</t>
+          <t>percentPPI</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.3586161081252614</v>
+        <v>-0.1885675814846345</v>
       </c>
       <c r="D40" t="n">
-        <v>2.877241276025363e-11</v>
+        <v>0.0009168492015015011</v>
       </c>
       <c r="E40" t="n">
-        <v>324</v>
+        <v>306</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>PTPA</t>
+          <t>peakValue</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>peakValue</t>
+          <t>prepulse_intensity</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.9996349206433556</v>
+        <v>0.06383660842508035</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>0.2656009986136634</v>
       </c>
       <c r="E41" t="n">
-        <v>324</v>
+        <v>306</v>
       </c>
     </row>
     <row r="42">
@@ -1308,14 +1308,14 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>PTTA</t>
+          <t>reactionTime</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.9957962628292348</v>
+        <v>-0.5358830559112745</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>1.762040888629575e-25</v>
       </c>
       <c r="E42" t="n">
         <v>324</v>
@@ -1329,14 +1329,14 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>RMS</t>
+          <t>peakTime</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0.9735343395404321</v>
+        <v>0.01831694648481384</v>
       </c>
       <c r="D43" t="n">
-        <v>1.760212437546593e-208</v>
+        <v>0.7425651519716943</v>
       </c>
       <c r="E43" t="n">
         <v>324</v>
@@ -1350,14 +1350,14 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>tau</t>
+          <t>difference</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>-0.3619146609637326</v>
+        <v>0.3586161081252614</v>
       </c>
       <c r="D44" t="n">
-        <v>1.837394629167563e-11</v>
+        <v>2.877241276025363e-11</v>
       </c>
       <c r="E44" t="n">
         <v>324</v>
@@ -1371,14 +1371,14 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>AUC</t>
+          <t>peakValue</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0.8656005042472067</v>
+        <v>0.9996349206433556</v>
       </c>
       <c r="D45" t="n">
-        <v>9.63235938691313e-99</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>324</v>
@@ -1392,35 +1392,35 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>percentPPI</t>
+          <t>PTTA</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>-0.1892722523092322</v>
+        <v>0.9957962628292348</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0008763261928432954</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>306</v>
+        <v>324</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>PTTA</t>
+          <t>PTPA</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>reactionTime</t>
+          <t>RMS</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>-0.5368152924094414</v>
+        <v>0.9735343395404321</v>
       </c>
       <c r="D47" t="n">
-        <v>1.403191880527584e-25</v>
+        <v>1.760212437546593e-208</v>
       </c>
       <c r="E47" t="n">
         <v>324</v>
@@ -1429,19 +1429,19 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>PTTA</t>
+          <t>PTPA</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>peakTime</t>
+          <t>tau</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0.02198114049129878</v>
+        <v>-0.3619146609637326</v>
       </c>
       <c r="D48" t="n">
-        <v>0.6934489064461434</v>
+        <v>1.837394629167563e-11</v>
       </c>
       <c r="E48" t="n">
         <v>324</v>
@@ -1450,19 +1450,19 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>PTTA</t>
+          <t>PTPA</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>difference</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0.3648335589708881</v>
+        <v>0.8656005042472067</v>
       </c>
       <c r="D49" t="n">
-        <v>1.23019286481984e-11</v>
+        <v>9.63235938691313e-99</v>
       </c>
       <c r="E49" t="n">
         <v>324</v>
@@ -1471,43 +1471,43 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>PTTA</t>
+          <t>PTPA</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>peakValue</t>
+          <t>percentPPI</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0.9962047267192415</v>
+        <v>-0.1892722523092322</v>
       </c>
       <c r="D50" t="n">
-        <v>0</v>
+        <v>0.0008763261928432954</v>
       </c>
       <c r="E50" t="n">
-        <v>324</v>
+        <v>306</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>PTTA</t>
+          <t>PTPA</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>PTPA</t>
+          <t>prepulse_intensity</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0.9957962628292349</v>
+        <v>0.06303129451266483</v>
       </c>
       <c r="D51" t="n">
-        <v>0</v>
+        <v>0.2716903964577436</v>
       </c>
       <c r="E51" t="n">
-        <v>324</v>
+        <v>306</v>
       </c>
     </row>
     <row r="52">
@@ -1518,14 +1518,14 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>RMS</t>
+          <t>reactionTime</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>0.9675629828423052</v>
+        <v>-0.5368152924094414</v>
       </c>
       <c r="D52" t="n">
-        <v>1.82811085533007e-194</v>
+        <v>1.403191880527584e-25</v>
       </c>
       <c r="E52" t="n">
         <v>324</v>
@@ -1539,14 +1539,14 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>tau</t>
+          <t>peakTime</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>-0.3697858819246019</v>
+        <v>0.02198114049129878</v>
       </c>
       <c r="D53" t="n">
-        <v>6.170330193987456e-12</v>
+        <v>0.6934489064461434</v>
       </c>
       <c r="E53" t="n">
         <v>324</v>
@@ -1560,14 +1560,14 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>AUC</t>
+          <t>difference</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>0.8548426361983144</v>
+        <v>0.3648335589708881</v>
       </c>
       <c r="D54" t="n">
-        <v>9.30733276197629e-94</v>
+        <v>1.23019286481984e-11</v>
       </c>
       <c r="E54" t="n">
         <v>324</v>
@@ -1581,35 +1581,35 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>percentPPI</t>
+          <t>peakValue</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>-0.1947253480584713</v>
+        <v>0.9962047267192415</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0006143326915009552</v>
+        <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>306</v>
+        <v>324</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>RMS</t>
+          <t>PTTA</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>reactionTime</t>
+          <t>PTPA</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>-0.5373432466316141</v>
+        <v>0.9957962628292349</v>
       </c>
       <c r="D56" t="n">
-        <v>1.233022897047154e-25</v>
+        <v>0</v>
       </c>
       <c r="E56" t="n">
         <v>324</v>
@@ -1618,19 +1618,19 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
+          <t>PTTA</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
           <t>RMS</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>peakTime</t>
-        </is>
-      </c>
       <c r="C57" t="n">
-        <v>0.07371888182879793</v>
+        <v>0.9675629828423052</v>
       </c>
       <c r="D57" t="n">
-        <v>0.1856316047312556</v>
+        <v>1.82811085533007e-194</v>
       </c>
       <c r="E57" t="n">
         <v>324</v>
@@ -1639,19 +1639,19 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>RMS</t>
+          <t>PTTA</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>difference</t>
+          <t>tau</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>0.4101406426089916</v>
+        <v>-0.3697858819246019</v>
       </c>
       <c r="D58" t="n">
-        <v>1.412874734407832e-14</v>
+        <v>6.170330193987456e-12</v>
       </c>
       <c r="E58" t="n">
         <v>324</v>
@@ -1660,19 +1660,19 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>RMS</t>
+          <t>PTTA</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>peakValue</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>0.9744697617510895</v>
+        <v>0.8548426361983144</v>
       </c>
       <c r="D59" t="n">
-        <v>5.783590831323696e-211</v>
+        <v>9.30733276197629e-94</v>
       </c>
       <c r="E59" t="n">
         <v>324</v>
@@ -1681,43 +1681,43 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>RMS</t>
+          <t>PTTA</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>PTPA</t>
+          <t>percentPPI</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>0.9735343395404321</v>
+        <v>-0.1947253480584713</v>
       </c>
       <c r="D60" t="n">
-        <v>1.760212437546593e-208</v>
+        <v>0.0006143326915009552</v>
       </c>
       <c r="E60" t="n">
-        <v>324</v>
+        <v>306</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>RMS</t>
+          <t>PTTA</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>PTTA</t>
+          <t>prepulse_intensity</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>0.9675629828423052</v>
+        <v>0.07285344854712295</v>
       </c>
       <c r="D61" t="n">
-        <v>1.82811085533007e-194</v>
+        <v>0.2037683058768996</v>
       </c>
       <c r="E61" t="n">
-        <v>324</v>
+        <v>306</v>
       </c>
     </row>
     <row r="62">
@@ -1728,14 +1728,14 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>tau</t>
+          <t>reactionTime</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>-0.2230725522077694</v>
+        <v>-0.5373432466316141</v>
       </c>
       <c r="D62" t="n">
-        <v>5.101072185643623e-05</v>
+        <v>1.233022897047154e-25</v>
       </c>
       <c r="E62" t="n">
         <v>324</v>
@@ -1749,14 +1749,14 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>AUC</t>
+          <t>peakTime</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>0.9462434523640613</v>
+        <v>0.07371888182879793</v>
       </c>
       <c r="D63" t="n">
-        <v>6.787495552841697e-160</v>
+        <v>0.1856316047312556</v>
       </c>
       <c r="E63" t="n">
         <v>324</v>
@@ -1770,35 +1770,35 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>percentPPI</t>
+          <t>difference</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>-0.2120056831058614</v>
+        <v>0.4101406426089916</v>
       </c>
       <c r="D64" t="n">
-        <v>0.00018699893389188</v>
+        <v>1.412874734407832e-14</v>
       </c>
       <c r="E64" t="n">
-        <v>306</v>
+        <v>324</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>tau</t>
+          <t>RMS</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>reactionTime</t>
+          <t>peakValue</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>0.1360264914830115</v>
+        <v>0.9744697617510895</v>
       </c>
       <c r="D65" t="n">
-        <v>0.01426921990392392</v>
+        <v>5.783590831323696e-211</v>
       </c>
       <c r="E65" t="n">
         <v>324</v>
@@ -1807,19 +1807,19 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>tau</t>
+          <t>RMS</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>peakTime</t>
+          <t>PTPA</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>0.1604258341398364</v>
+        <v>0.9735343395404321</v>
       </c>
       <c r="D66" t="n">
-        <v>0.003788208172312706</v>
+        <v>1.760212437546593e-208</v>
       </c>
       <c r="E66" t="n">
         <v>324</v>
@@ -1828,19 +1828,19 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>tau</t>
+          <t>RMS</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>difference</t>
+          <t>PTTA</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>0.04391166978725793</v>
+        <v>0.9675629828423052</v>
       </c>
       <c r="D67" t="n">
-        <v>0.4308515807827019</v>
+        <v>1.82811085533007e-194</v>
       </c>
       <c r="E67" t="n">
         <v>324</v>
@@ -1849,19 +1849,19 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
+          <t>RMS</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
           <t>tau</t>
         </is>
       </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>peakValue</t>
-        </is>
-      </c>
       <c r="C68" t="n">
-        <v>-0.3608237401916921</v>
+        <v>-0.2230725522077694</v>
       </c>
       <c r="D68" t="n">
-        <v>2.132392927712678e-11</v>
+        <v>5.101072185643623e-05</v>
       </c>
       <c r="E68" t="n">
         <v>324</v>
@@ -1870,19 +1870,19 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>tau</t>
+          <t>RMS</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>PTPA</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>-0.3619146609637327</v>
+        <v>0.9462434523640613</v>
       </c>
       <c r="D69" t="n">
-        <v>1.83739462916755e-11</v>
+        <v>6.787495552841697e-160</v>
       </c>
       <c r="E69" t="n">
         <v>324</v>
@@ -1891,43 +1891,43 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>tau</t>
+          <t>RMS</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>PTTA</t>
+          <t>percentPPI</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>-0.3697858819246019</v>
+        <v>-0.2120056831058614</v>
       </c>
       <c r="D70" t="n">
-        <v>6.170330193987365e-12</v>
+        <v>0.00018699893389188</v>
       </c>
       <c r="E70" t="n">
-        <v>324</v>
+        <v>306</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>tau</t>
+          <t>RMS</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>RMS</t>
+          <t>prepulse_intensity</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>-0.2230725522077694</v>
+        <v>0.07523435479196669</v>
       </c>
       <c r="D71" t="n">
-        <v>5.101072185643623e-05</v>
+        <v>0.1893385405395213</v>
       </c>
       <c r="E71" t="n">
-        <v>324</v>
+        <v>306</v>
       </c>
     </row>
     <row r="72">
@@ -1938,14 +1938,14 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>AUC</t>
+          <t>reactionTime</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>0.01861960078678345</v>
+        <v>0.1360264914830115</v>
       </c>
       <c r="D72" t="n">
-        <v>0.7384652574683481</v>
+        <v>0.01426921990392392</v>
       </c>
       <c r="E72" t="n">
         <v>324</v>
@@ -1959,35 +1959,35 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>percentPPI</t>
+          <t>peakTime</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>-0.01478935882937184</v>
+        <v>0.1604258341398364</v>
       </c>
       <c r="D73" t="n">
-        <v>0.7966666896562247</v>
+        <v>0.003788208172312706</v>
       </c>
       <c r="E73" t="n">
-        <v>306</v>
+        <v>324</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>AUC</t>
+          <t>tau</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>reactionTime</t>
+          <t>difference</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>-0.5053471280814221</v>
+        <v>0.04391166978725793</v>
       </c>
       <c r="D74" t="n">
-        <v>2.099657985557351e-22</v>
+        <v>0.4308515807827019</v>
       </c>
       <c r="E74" t="n">
         <v>324</v>
@@ -1996,19 +1996,19 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>AUC</t>
+          <t>tau</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>peakTime</t>
+          <t>peakValue</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>0.08231772652059781</v>
+        <v>-0.3608237401916921</v>
       </c>
       <c r="D75" t="n">
-        <v>0.1392732829440573</v>
+        <v>2.132392927712678e-11</v>
       </c>
       <c r="E75" t="n">
         <v>324</v>
@@ -2017,19 +2017,19 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>AUC</t>
+          <t>tau</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>difference</t>
+          <t>PTPA</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>0.4027230895766142</v>
+        <v>-0.3619146609637327</v>
       </c>
       <c r="D76" t="n">
-        <v>4.600172341288581e-14</v>
+        <v>1.83739462916755e-11</v>
       </c>
       <c r="E76" t="n">
         <v>324</v>
@@ -2038,19 +2038,19 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>AUC</t>
+          <t>tau</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>peakValue</t>
+          <t>PTTA</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>0.8666803560408876</v>
+        <v>-0.3697858819246019</v>
       </c>
       <c r="D77" t="n">
-        <v>2.881333234564617e-99</v>
+        <v>6.170330193987365e-12</v>
       </c>
       <c r="E77" t="n">
         <v>324</v>
@@ -2059,19 +2059,19 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>AUC</t>
+          <t>tau</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>PTPA</t>
+          <t>RMS</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>0.8656005042472068</v>
+        <v>-0.2230725522077694</v>
       </c>
       <c r="D78" t="n">
-        <v>9.632359386911759e-99</v>
+        <v>5.101072185643623e-05</v>
       </c>
       <c r="E78" t="n">
         <v>324</v>
@@ -2080,19 +2080,19 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
+          <t>tau</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
           <t>AUC</t>
         </is>
       </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>PTTA</t>
-        </is>
-      </c>
       <c r="C79" t="n">
-        <v>0.8548426361983144</v>
+        <v>0.01861960078678345</v>
       </c>
       <c r="D79" t="n">
-        <v>9.30733276197629e-94</v>
+        <v>0.7384652574683481</v>
       </c>
       <c r="E79" t="n">
         <v>324</v>
@@ -2101,43 +2101,43 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>AUC</t>
+          <t>tau</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>RMS</t>
+          <t>percentPPI</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>0.9462434523640613</v>
+        <v>-0.01478935882937184</v>
       </c>
       <c r="D80" t="n">
-        <v>6.787495552841697e-160</v>
+        <v>0.7966666896562247</v>
       </c>
       <c r="E80" t="n">
-        <v>324</v>
+        <v>306</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>AUC</t>
+          <t>tau</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>tau</t>
+          <t>prepulse_intensity</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>0.01861960078678345</v>
+        <v>0.03132349175255736</v>
       </c>
       <c r="D81" t="n">
-        <v>0.7384652574683481</v>
+        <v>0.5851836545412548</v>
       </c>
       <c r="E81" t="n">
-        <v>324</v>
+        <v>306</v>
       </c>
     </row>
     <row r="82">
@@ -2148,182 +2148,182 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>percentPPI</t>
+          <t>reactionTime</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>-0.2347481141465456</v>
+        <v>-0.5053471280814221</v>
       </c>
       <c r="D82" t="n">
-        <v>3.358132540764515e-05</v>
+        <v>2.099657985557351e-22</v>
       </c>
       <c r="E82" t="n">
-        <v>306</v>
+        <v>324</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>percentPPI</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>reactionTime</t>
+          <t>peakTime</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>0.03890649099426113</v>
+        <v>0.08231772652059781</v>
       </c>
       <c r="D83" t="n">
-        <v>0.4977355530560077</v>
+        <v>0.1392732829440573</v>
       </c>
       <c r="E83" t="n">
-        <v>306</v>
+        <v>324</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>percentPPI</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>peakTime</t>
+          <t>difference</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>0.03579197499173792</v>
+        <v>0.4027230895766142</v>
       </c>
       <c r="D84" t="n">
-        <v>0.5327974887068463</v>
+        <v>4.600172341288581e-14</v>
       </c>
       <c r="E84" t="n">
-        <v>306</v>
+        <v>324</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>percentPPI</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>difference</t>
+          <t>peakValue</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>0.008482784652718754</v>
+        <v>0.8666803560408876</v>
       </c>
       <c r="D85" t="n">
-        <v>0.8825136444448201</v>
+        <v>2.881333234564617e-99</v>
       </c>
       <c r="E85" t="n">
-        <v>306</v>
+        <v>324</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>percentPPI</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>peakValue</t>
+          <t>PTPA</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>-0.1885675814846345</v>
+        <v>0.8656005042472068</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0009168492015015011</v>
+        <v>9.632359386911759e-99</v>
       </c>
       <c r="E86" t="n">
-        <v>306</v>
+        <v>324</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>percentPPI</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>PTPA</t>
+          <t>PTTA</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>-0.1892722523092322</v>
+        <v>0.8548426361983144</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0008763261928432954</v>
+        <v>9.30733276197629e-94</v>
       </c>
       <c r="E87" t="n">
-        <v>306</v>
+        <v>324</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>percentPPI</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>PTTA</t>
+          <t>RMS</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>-0.1947253480584713</v>
+        <v>0.9462434523640613</v>
       </c>
       <c r="D88" t="n">
-        <v>0.000614332691500957</v>
+        <v>6.787495552841697e-160</v>
       </c>
       <c r="E88" t="n">
-        <v>306</v>
+        <v>324</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>percentPPI</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>RMS</t>
+          <t>tau</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>-0.2120056831058614</v>
+        <v>0.01861960078678345</v>
       </c>
       <c r="D89" t="n">
-        <v>0.00018699893389188</v>
+        <v>0.7384652574683481</v>
       </c>
       <c r="E89" t="n">
-        <v>306</v>
+        <v>324</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
+          <t>AUC</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
           <t>percentPPI</t>
         </is>
       </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>tau</t>
-        </is>
-      </c>
       <c r="C90" t="n">
-        <v>-0.01478935882937184</v>
+        <v>-0.2347481141465456</v>
       </c>
       <c r="D90" t="n">
-        <v>0.7966666896562247</v>
+        <v>3.358132540764515e-05</v>
       </c>
       <c r="E90" t="n">
         <v>306</v>
@@ -2332,21 +2332,441 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
+          <t>AUC</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>prepulse_intensity</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>0.08037620865197001</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0.1607584742092133</v>
+      </c>
+      <c r="E91" t="n">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
           <t>percentPPI</t>
         </is>
       </c>
-      <c r="B91" t="inlineStr">
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>reactionTime</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>0.03890649099426113</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0.4977355530560077</v>
+      </c>
+      <c r="E92" t="n">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>percentPPI</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>peakTime</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>0.03579197499173792</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0.5327974887068463</v>
+      </c>
+      <c r="E93" t="n">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>percentPPI</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>difference</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>0.008482784652718754</v>
+      </c>
+      <c r="D94" t="n">
+        <v>0.8825136444448201</v>
+      </c>
+      <c r="E94" t="n">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>percentPPI</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>peakValue</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>-0.1885675814846345</v>
+      </c>
+      <c r="D95" t="n">
+        <v>0.0009168492015015011</v>
+      </c>
+      <c r="E95" t="n">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>percentPPI</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>PTPA</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>-0.1892722523092322</v>
+      </c>
+      <c r="D96" t="n">
+        <v>0.0008763261928432954</v>
+      </c>
+      <c r="E96" t="n">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>percentPPI</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>PTTA</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>-0.1947253480584713</v>
+      </c>
+      <c r="D97" t="n">
+        <v>0.000614332691500957</v>
+      </c>
+      <c r="E97" t="n">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>percentPPI</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>RMS</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>-0.2120056831058614</v>
+      </c>
+      <c r="D98" t="n">
+        <v>0.00018699893389188</v>
+      </c>
+      <c r="E98" t="n">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>percentPPI</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>tau</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>-0.01478935882937184</v>
+      </c>
+      <c r="D99" t="n">
+        <v>0.7966666896562247</v>
+      </c>
+      <c r="E99" t="n">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>percentPPI</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
         <is>
           <t>AUC</t>
         </is>
       </c>
-      <c r="C91" t="n">
+      <c r="C100" t="n">
         <v>-0.2347481141465456</v>
       </c>
-      <c r="D91" t="n">
+      <c r="D100" t="n">
         <v>3.358132540764515e-05</v>
       </c>
-      <c r="E91" t="n">
+      <c r="E100" t="n">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>percentPPI</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>prepulse_intensity</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>-0.3836640895876999</v>
+      </c>
+      <c r="D101" t="n">
+        <v>3.607818178506963e-12</v>
+      </c>
+      <c r="E101" t="n">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>prepulse_intensity</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>reactionTime</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>-0.2200880076601207</v>
+      </c>
+      <c r="D102" t="n">
+        <v>0.0001036371579573936</v>
+      </c>
+      <c r="E102" t="n">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>prepulse_intensity</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>peakTime</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>-0.07983990202631203</v>
+      </c>
+      <c r="D103" t="n">
+        <v>0.1635784247885434</v>
+      </c>
+      <c r="E103" t="n">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>prepulse_intensity</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>difference</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>0.1020516514807506</v>
+      </c>
+      <c r="D104" t="n">
+        <v>0.07466362867706661</v>
+      </c>
+      <c r="E104" t="n">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>prepulse_intensity</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>peakValue</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>0.06383660842508035</v>
+      </c>
+      <c r="D105" t="n">
+        <v>0.2656009986136634</v>
+      </c>
+      <c r="E105" t="n">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>prepulse_intensity</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>PTPA</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>0.06303129451266481</v>
+      </c>
+      <c r="D106" t="n">
+        <v>0.2716903964577436</v>
+      </c>
+      <c r="E106" t="n">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>prepulse_intensity</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>PTTA</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>0.07285344854712295</v>
+      </c>
+      <c r="D107" t="n">
+        <v>0.2037683058768996</v>
+      </c>
+      <c r="E107" t="n">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>prepulse_intensity</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>RMS</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>0.07523435479196669</v>
+      </c>
+      <c r="D108" t="n">
+        <v>0.1893385405395213</v>
+      </c>
+      <c r="E108" t="n">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>prepulse_intensity</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>tau</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>0.03132349175255736</v>
+      </c>
+      <c r="D109" t="n">
+        <v>0.5851836545412548</v>
+      </c>
+      <c r="E109" t="n">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>prepulse_intensity</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>AUC</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>0.08037620865197001</v>
+      </c>
+      <c r="D110" t="n">
+        <v>0.1607584742092133</v>
+      </c>
+      <c r="E110" t="n">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>prepulse_intensity</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>percentPPI</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>-0.3836640895876998</v>
+      </c>
+      <c r="D111" t="n">
+        <v>3.607818178506963e-12</v>
+      </c>
+      <c r="E111" t="n">
         <v>306</v>
       </c>
     </row>

--- a/Tester Results/ALL_VAR_CORRELATIONS.xlsx
+++ b/Tester Results/ALL_VAR_CORRELATIONS.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E111"/>
+  <dimension ref="A1:E91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -652,22 +652,22 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>peakTime</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
           <t>reactionTime</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>prepulse_intensity</t>
-        </is>
-      </c>
       <c r="C11" t="n">
-        <v>-0.2200880076601208</v>
+        <v>-0.03675932451552016</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0001036371579573933</v>
+        <v>0.5096816721186384</v>
       </c>
       <c r="E11" t="n">
-        <v>306</v>
+        <v>324</v>
       </c>
     </row>
     <row r="12">
@@ -678,14 +678,14 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>reactionTime</t>
+          <t>difference</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-0.03675932451552016</v>
+        <v>0.6833323757453084</v>
       </c>
       <c r="D12" t="n">
-        <v>0.5096816721186384</v>
+        <v>6.638437475166306e-46</v>
       </c>
       <c r="E12" t="n">
         <v>324</v>
@@ -699,14 +699,14 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>difference</t>
+          <t>peakValue</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.6833323757453084</v>
+        <v>0.02642327408287458</v>
       </c>
       <c r="D13" t="n">
-        <v>6.638437475166306e-46</v>
+        <v>0.6355972725261866</v>
       </c>
       <c r="E13" t="n">
         <v>324</v>
@@ -720,14 +720,14 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>peakValue</t>
+          <t>PTPA</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.02642327408287458</v>
+        <v>0.01831694648481384</v>
       </c>
       <c r="D14" t="n">
-        <v>0.6355972725261866</v>
+        <v>0.7425651519716941</v>
       </c>
       <c r="E14" t="n">
         <v>324</v>
@@ -741,14 +741,14 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>PTPA</t>
+          <t>PTTA</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.01831694648481384</v>
+        <v>0.02198114049129878</v>
       </c>
       <c r="D15" t="n">
-        <v>0.7425651519716941</v>
+        <v>0.6934489064461434</v>
       </c>
       <c r="E15" t="n">
         <v>324</v>
@@ -762,14 +762,14 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>PTTA</t>
+          <t>RMS</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.02198114049129878</v>
+        <v>0.07371888182879792</v>
       </c>
       <c r="D16" t="n">
-        <v>0.6934489064461434</v>
+        <v>0.1856316047312557</v>
       </c>
       <c r="E16" t="n">
         <v>324</v>
@@ -783,14 +783,14 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>RMS</t>
+          <t>tau</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.07371888182879792</v>
+        <v>0.1604258341398364</v>
       </c>
       <c r="D17" t="n">
-        <v>0.1856316047312557</v>
+        <v>0.003788208172312706</v>
       </c>
       <c r="E17" t="n">
         <v>324</v>
@@ -804,14 +804,14 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>tau</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.1604258341398364</v>
+        <v>0.08231772652059781</v>
       </c>
       <c r="D18" t="n">
-        <v>0.003788208172312706</v>
+        <v>0.1392732829440573</v>
       </c>
       <c r="E18" t="n">
         <v>324</v>
@@ -825,59 +825,59 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>AUC</t>
+          <t>percentPPI</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.08231772652059781</v>
+        <v>0.03579197499173792</v>
       </c>
       <c r="D19" t="n">
-        <v>0.1392732829440573</v>
+        <v>0.5327974887068463</v>
       </c>
       <c r="E19" t="n">
-        <v>324</v>
+        <v>306</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>peakTime</t>
+          <t>difference</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>percentPPI</t>
+          <t>reactionTime</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.03579197499173792</v>
+        <v>-0.6685001195759162</v>
       </c>
       <c r="D20" t="n">
-        <v>0.5327974887068463</v>
+        <v>2.589872747627608e-43</v>
       </c>
       <c r="E20" t="n">
-        <v>306</v>
+        <v>324</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
+          <t>difference</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
           <t>peakTime</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>prepulse_intensity</t>
-        </is>
-      </c>
       <c r="C21" t="n">
-        <v>-0.07983990202631203</v>
+        <v>0.6833323757453084</v>
       </c>
       <c r="D21" t="n">
-        <v>0.1635784247885434</v>
+        <v>6.638437475166306e-46</v>
       </c>
       <c r="E21" t="n">
-        <v>306</v>
+        <v>324</v>
       </c>
     </row>
     <row r="22">
@@ -888,14 +888,14 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>reactionTime</t>
+          <t>peakValue</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>-0.6685001195759162</v>
+        <v>0.3657026322248481</v>
       </c>
       <c r="D22" t="n">
-        <v>2.589872747627608e-43</v>
+        <v>1.090828287991331e-11</v>
       </c>
       <c r="E22" t="n">
         <v>324</v>
@@ -909,14 +909,14 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>peakTime</t>
+          <t>PTPA</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.6833323757453084</v>
+        <v>0.3586161081252614</v>
       </c>
       <c r="D23" t="n">
-        <v>6.638437475166306e-46</v>
+        <v>2.877241276025363e-11</v>
       </c>
       <c r="E23" t="n">
         <v>324</v>
@@ -930,14 +930,14 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>peakValue</t>
+          <t>PTTA</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.3657026322248481</v>
+        <v>0.3648335589708881</v>
       </c>
       <c r="D24" t="n">
-        <v>1.090828287991331e-11</v>
+        <v>1.23019286481984e-11</v>
       </c>
       <c r="E24" t="n">
         <v>324</v>
@@ -951,14 +951,14 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>PTPA</t>
+          <t>RMS</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.3586161081252614</v>
+        <v>0.4101406426089916</v>
       </c>
       <c r="D25" t="n">
-        <v>2.877241276025363e-11</v>
+        <v>1.412874734407792e-14</v>
       </c>
       <c r="E25" t="n">
         <v>324</v>
@@ -972,14 +972,14 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>PTTA</t>
+          <t>tau</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.3648335589708881</v>
+        <v>0.04391166978725793</v>
       </c>
       <c r="D26" t="n">
-        <v>1.23019286481984e-11</v>
+        <v>0.4308515807827019</v>
       </c>
       <c r="E26" t="n">
         <v>324</v>
@@ -993,14 +993,14 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>RMS</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.4101406426089916</v>
+        <v>0.4027230895766142</v>
       </c>
       <c r="D27" t="n">
-        <v>1.412874734407792e-14</v>
+        <v>4.600172341288581e-14</v>
       </c>
       <c r="E27" t="n">
         <v>324</v>
@@ -1014,35 +1014,35 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>tau</t>
+          <t>percentPPI</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.04391166978725793</v>
+        <v>0.008482784652718756</v>
       </c>
       <c r="D28" t="n">
-        <v>0.4308515807827019</v>
+        <v>0.8825136444448201</v>
       </c>
       <c r="E28" t="n">
-        <v>324</v>
+        <v>306</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>difference</t>
+          <t>peakValue</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>AUC</t>
+          <t>reactionTime</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.4027230895766142</v>
+        <v>-0.5366327396638366</v>
       </c>
       <c r="D29" t="n">
-        <v>4.600172341288581e-14</v>
+        <v>1.467262702087708e-25</v>
       </c>
       <c r="E29" t="n">
         <v>324</v>
@@ -1051,43 +1051,43 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>difference</t>
+          <t>peakValue</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>percentPPI</t>
+          <t>peakTime</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.008482784652718756</v>
+        <v>0.02642327408287458</v>
       </c>
       <c r="D30" t="n">
-        <v>0.8825136444448201</v>
+        <v>0.6355972725261866</v>
       </c>
       <c r="E30" t="n">
-        <v>306</v>
+        <v>324</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
+          <t>peakValue</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
           <t>difference</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>prepulse_intensity</t>
-        </is>
-      </c>
       <c r="C31" t="n">
-        <v>0.1020516514807506</v>
+        <v>0.3657026322248481</v>
       </c>
       <c r="D31" t="n">
-        <v>0.07466362867706661</v>
+        <v>1.090828287991331e-11</v>
       </c>
       <c r="E31" t="n">
-        <v>306</v>
+        <v>324</v>
       </c>
     </row>
     <row r="32">
@@ -1098,14 +1098,14 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>reactionTime</t>
+          <t>PTPA</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>-0.5366327396638366</v>
+        <v>0.9996349206433556</v>
       </c>
       <c r="D32" t="n">
-        <v>1.467262702087708e-25</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>324</v>
@@ -1119,14 +1119,14 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>peakTime</t>
+          <t>PTTA</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.02642327408287458</v>
+        <v>0.9962047267192415</v>
       </c>
       <c r="D33" t="n">
-        <v>0.6355972725261866</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>324</v>
@@ -1140,14 +1140,14 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>difference</t>
+          <t>RMS</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.3657026322248481</v>
+        <v>0.9744697617510893</v>
       </c>
       <c r="D34" t="n">
-        <v>1.090828287991331e-11</v>
+        <v>5.783590831327313e-211</v>
       </c>
       <c r="E34" t="n">
         <v>324</v>
@@ -1161,14 +1161,14 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>PTPA</t>
+          <t>tau</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.9996349206433556</v>
+        <v>-0.3608237401916921</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>2.132392927712678e-11</v>
       </c>
       <c r="E35" t="n">
         <v>324</v>
@@ -1182,14 +1182,14 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>PTTA</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.9962047267192415</v>
+        <v>0.8666803560408877</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>2.881333234564207e-99</v>
       </c>
       <c r="E36" t="n">
         <v>324</v>
@@ -1203,35 +1203,35 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>RMS</t>
+          <t>percentPPI</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.9744697617510893</v>
+        <v>-0.1885675814846345</v>
       </c>
       <c r="D37" t="n">
-        <v>5.783590831327313e-211</v>
+        <v>0.0009168492015015011</v>
       </c>
       <c r="E37" t="n">
-        <v>324</v>
+        <v>306</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>peakValue</t>
+          <t>PTPA</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>tau</t>
+          <t>reactionTime</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>-0.3608237401916921</v>
+        <v>-0.5358830559112745</v>
       </c>
       <c r="D38" t="n">
-        <v>2.132392927712678e-11</v>
+        <v>1.762040888629575e-25</v>
       </c>
       <c r="E38" t="n">
         <v>324</v>
@@ -1240,19 +1240,19 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>peakValue</t>
+          <t>PTPA</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>AUC</t>
+          <t>peakTime</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.8666803560408877</v>
+        <v>0.01831694648481384</v>
       </c>
       <c r="D39" t="n">
-        <v>2.881333234564207e-99</v>
+        <v>0.7425651519716943</v>
       </c>
       <c r="E39" t="n">
         <v>324</v>
@@ -1261,43 +1261,43 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>peakValue</t>
+          <t>PTPA</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>percentPPI</t>
+          <t>difference</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>-0.1885675814846345</v>
+        <v>0.3586161081252614</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0009168492015015011</v>
+        <v>2.877241276025363e-11</v>
       </c>
       <c r="E40" t="n">
-        <v>306</v>
+        <v>324</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
+          <t>PTPA</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
           <t>peakValue</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>prepulse_intensity</t>
-        </is>
-      </c>
       <c r="C41" t="n">
-        <v>0.06383660842508035</v>
+        <v>0.9996349206433556</v>
       </c>
       <c r="D41" t="n">
-        <v>0.2656009986136634</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>306</v>
+        <v>324</v>
       </c>
     </row>
     <row r="42">
@@ -1308,14 +1308,14 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>reactionTime</t>
+          <t>PTTA</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>-0.5358830559112745</v>
+        <v>0.9957962628292348</v>
       </c>
       <c r="D42" t="n">
-        <v>1.762040888629575e-25</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>324</v>
@@ -1329,14 +1329,14 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>peakTime</t>
+          <t>RMS</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0.01831694648481384</v>
+        <v>0.9735343395404321</v>
       </c>
       <c r="D43" t="n">
-        <v>0.7425651519716943</v>
+        <v>1.760212437546593e-208</v>
       </c>
       <c r="E43" t="n">
         <v>324</v>
@@ -1350,14 +1350,14 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>difference</t>
+          <t>tau</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0.3586161081252614</v>
+        <v>-0.3619146609637326</v>
       </c>
       <c r="D44" t="n">
-        <v>2.877241276025363e-11</v>
+        <v>1.837394629167563e-11</v>
       </c>
       <c r="E44" t="n">
         <v>324</v>
@@ -1371,14 +1371,14 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>peakValue</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0.9996349206433556</v>
+        <v>0.8656005042472067</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>9.63235938691313e-99</v>
       </c>
       <c r="E45" t="n">
         <v>324</v>
@@ -1392,35 +1392,35 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>PTTA</t>
+          <t>percentPPI</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0.9957962628292348</v>
+        <v>-0.1892722523092322</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>0.0008763261928432954</v>
       </c>
       <c r="E46" t="n">
-        <v>324</v>
+        <v>306</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>PTPA</t>
+          <t>PTTA</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>RMS</t>
+          <t>reactionTime</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0.9735343395404321</v>
+        <v>-0.5368152924094414</v>
       </c>
       <c r="D47" t="n">
-        <v>1.760212437546593e-208</v>
+        <v>1.403191880527584e-25</v>
       </c>
       <c r="E47" t="n">
         <v>324</v>
@@ -1429,19 +1429,19 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>PTPA</t>
+          <t>PTTA</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>tau</t>
+          <t>peakTime</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>-0.3619146609637326</v>
+        <v>0.02198114049129878</v>
       </c>
       <c r="D48" t="n">
-        <v>1.837394629167563e-11</v>
+        <v>0.6934489064461434</v>
       </c>
       <c r="E48" t="n">
         <v>324</v>
@@ -1450,19 +1450,19 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>PTPA</t>
+          <t>PTTA</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>AUC</t>
+          <t>difference</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0.8656005042472067</v>
+        <v>0.3648335589708881</v>
       </c>
       <c r="D49" t="n">
-        <v>9.63235938691313e-99</v>
+        <v>1.23019286481984e-11</v>
       </c>
       <c r="E49" t="n">
         <v>324</v>
@@ -1471,43 +1471,43 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>PTPA</t>
+          <t>PTTA</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>percentPPI</t>
+          <t>peakValue</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>-0.1892722523092322</v>
+        <v>0.9962047267192415</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0008763261928432954</v>
+        <v>0</v>
       </c>
       <c r="E50" t="n">
-        <v>306</v>
+        <v>324</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
+          <t>PTTA</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
           <t>PTPA</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>prepulse_intensity</t>
-        </is>
-      </c>
       <c r="C51" t="n">
-        <v>0.06303129451266483</v>
+        <v>0.9957962628292349</v>
       </c>
       <c r="D51" t="n">
-        <v>0.2716903964577436</v>
+        <v>0</v>
       </c>
       <c r="E51" t="n">
-        <v>306</v>
+        <v>324</v>
       </c>
     </row>
     <row r="52">
@@ -1518,14 +1518,14 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>reactionTime</t>
+          <t>RMS</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>-0.5368152924094414</v>
+        <v>0.9675629828423052</v>
       </c>
       <c r="D52" t="n">
-        <v>1.403191880527584e-25</v>
+        <v>1.82811085533007e-194</v>
       </c>
       <c r="E52" t="n">
         <v>324</v>
@@ -1539,14 +1539,14 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>peakTime</t>
+          <t>tau</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>0.02198114049129878</v>
+        <v>-0.3697858819246019</v>
       </c>
       <c r="D53" t="n">
-        <v>0.6934489064461434</v>
+        <v>6.170330193987456e-12</v>
       </c>
       <c r="E53" t="n">
         <v>324</v>
@@ -1560,14 +1560,14 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>difference</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>0.3648335589708881</v>
+        <v>0.8548426361983144</v>
       </c>
       <c r="D54" t="n">
-        <v>1.23019286481984e-11</v>
+        <v>9.30733276197629e-94</v>
       </c>
       <c r="E54" t="n">
         <v>324</v>
@@ -1581,35 +1581,35 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>peakValue</t>
+          <t>percentPPI</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>0.9962047267192415</v>
+        <v>-0.1947253480584713</v>
       </c>
       <c r="D55" t="n">
-        <v>0</v>
+        <v>0.0006143326915009552</v>
       </c>
       <c r="E55" t="n">
-        <v>324</v>
+        <v>306</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>PTTA</t>
+          <t>RMS</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>PTPA</t>
+          <t>reactionTime</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>0.9957962628292349</v>
+        <v>-0.5373432466316141</v>
       </c>
       <c r="D56" t="n">
-        <v>0</v>
+        <v>1.233022897047154e-25</v>
       </c>
       <c r="E56" t="n">
         <v>324</v>
@@ -1618,19 +1618,19 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>PTTA</t>
+          <t>RMS</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>RMS</t>
+          <t>peakTime</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>0.9675629828423052</v>
+        <v>0.07371888182879793</v>
       </c>
       <c r="D57" t="n">
-        <v>1.82811085533007e-194</v>
+        <v>0.1856316047312556</v>
       </c>
       <c r="E57" t="n">
         <v>324</v>
@@ -1639,19 +1639,19 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>PTTA</t>
+          <t>RMS</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>tau</t>
+          <t>difference</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>-0.3697858819246019</v>
+        <v>0.4101406426089916</v>
       </c>
       <c r="D58" t="n">
-        <v>6.170330193987456e-12</v>
+        <v>1.412874734407832e-14</v>
       </c>
       <c r="E58" t="n">
         <v>324</v>
@@ -1660,19 +1660,19 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>PTTA</t>
+          <t>RMS</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>AUC</t>
+          <t>peakValue</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>0.8548426361983144</v>
+        <v>0.9744697617510895</v>
       </c>
       <c r="D59" t="n">
-        <v>9.30733276197629e-94</v>
+        <v>5.783590831323696e-211</v>
       </c>
       <c r="E59" t="n">
         <v>324</v>
@@ -1681,43 +1681,43 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>PTTA</t>
+          <t>RMS</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>percentPPI</t>
+          <t>PTPA</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>-0.1947253480584713</v>
+        <v>0.9735343395404321</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0006143326915009552</v>
+        <v>1.760212437546593e-208</v>
       </c>
       <c r="E60" t="n">
-        <v>306</v>
+        <v>324</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
+          <t>RMS</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
           <t>PTTA</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>prepulse_intensity</t>
-        </is>
-      </c>
       <c r="C61" t="n">
-        <v>0.07285344854712295</v>
+        <v>0.9675629828423052</v>
       </c>
       <c r="D61" t="n">
-        <v>0.2037683058768996</v>
+        <v>1.82811085533007e-194</v>
       </c>
       <c r="E61" t="n">
-        <v>306</v>
+        <v>324</v>
       </c>
     </row>
     <row r="62">
@@ -1728,14 +1728,14 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>reactionTime</t>
+          <t>tau</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>-0.5373432466316141</v>
+        <v>-0.2230725522077694</v>
       </c>
       <c r="D62" t="n">
-        <v>1.233022897047154e-25</v>
+        <v>5.101072185643623e-05</v>
       </c>
       <c r="E62" t="n">
         <v>324</v>
@@ -1749,14 +1749,14 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>peakTime</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>0.07371888182879793</v>
+        <v>0.9462434523640613</v>
       </c>
       <c r="D63" t="n">
-        <v>0.1856316047312556</v>
+        <v>6.787495552841697e-160</v>
       </c>
       <c r="E63" t="n">
         <v>324</v>
@@ -1770,35 +1770,35 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>difference</t>
+          <t>percentPPI</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>0.4101406426089916</v>
+        <v>-0.2120056831058614</v>
       </c>
       <c r="D64" t="n">
-        <v>1.412874734407832e-14</v>
+        <v>0.00018699893389188</v>
       </c>
       <c r="E64" t="n">
-        <v>324</v>
+        <v>306</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>RMS</t>
+          <t>tau</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>peakValue</t>
+          <t>reactionTime</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>0.9744697617510895</v>
+        <v>0.1360264914830115</v>
       </c>
       <c r="D65" t="n">
-        <v>5.783590831323696e-211</v>
+        <v>0.01426921990392392</v>
       </c>
       <c r="E65" t="n">
         <v>324</v>
@@ -1807,19 +1807,19 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>RMS</t>
+          <t>tau</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>PTPA</t>
+          <t>peakTime</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>0.9735343395404321</v>
+        <v>0.1604258341398364</v>
       </c>
       <c r="D66" t="n">
-        <v>1.760212437546593e-208</v>
+        <v>0.003788208172312706</v>
       </c>
       <c r="E66" t="n">
         <v>324</v>
@@ -1828,19 +1828,19 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>RMS</t>
+          <t>tau</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>PTTA</t>
+          <t>difference</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>0.9675629828423052</v>
+        <v>0.04391166978725793</v>
       </c>
       <c r="D67" t="n">
-        <v>1.82811085533007e-194</v>
+        <v>0.4308515807827019</v>
       </c>
       <c r="E67" t="n">
         <v>324</v>
@@ -1849,19 +1849,19 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>RMS</t>
+          <t>tau</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>tau</t>
+          <t>peakValue</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>-0.2230725522077694</v>
+        <v>-0.3608237401916921</v>
       </c>
       <c r="D68" t="n">
-        <v>5.101072185643623e-05</v>
+        <v>2.132392927712678e-11</v>
       </c>
       <c r="E68" t="n">
         <v>324</v>
@@ -1870,19 +1870,19 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>RMS</t>
+          <t>tau</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>AUC</t>
+          <t>PTPA</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>0.9462434523640613</v>
+        <v>-0.3619146609637327</v>
       </c>
       <c r="D69" t="n">
-        <v>6.787495552841697e-160</v>
+        <v>1.83739462916755e-11</v>
       </c>
       <c r="E69" t="n">
         <v>324</v>
@@ -1891,43 +1891,43 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>RMS</t>
+          <t>tau</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>percentPPI</t>
+          <t>PTTA</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>-0.2120056831058614</v>
+        <v>-0.3697858819246019</v>
       </c>
       <c r="D70" t="n">
-        <v>0.00018699893389188</v>
+        <v>6.170330193987365e-12</v>
       </c>
       <c r="E70" t="n">
-        <v>306</v>
+        <v>324</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
+          <t>tau</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
           <t>RMS</t>
         </is>
       </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>prepulse_intensity</t>
-        </is>
-      </c>
       <c r="C71" t="n">
-        <v>0.07523435479196669</v>
+        <v>-0.2230725522077694</v>
       </c>
       <c r="D71" t="n">
-        <v>0.1893385405395213</v>
+        <v>5.101072185643623e-05</v>
       </c>
       <c r="E71" t="n">
-        <v>306</v>
+        <v>324</v>
       </c>
     </row>
     <row r="72">
@@ -1938,14 +1938,14 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>reactionTime</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>0.1360264914830115</v>
+        <v>0.01861960078678345</v>
       </c>
       <c r="D72" t="n">
-        <v>0.01426921990392392</v>
+        <v>0.7384652574683481</v>
       </c>
       <c r="E72" t="n">
         <v>324</v>
@@ -1959,35 +1959,35 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>peakTime</t>
+          <t>percentPPI</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>0.1604258341398364</v>
+        <v>-0.01478935882937184</v>
       </c>
       <c r="D73" t="n">
-        <v>0.003788208172312706</v>
+        <v>0.7966666896562247</v>
       </c>
       <c r="E73" t="n">
-        <v>324</v>
+        <v>306</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>tau</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>difference</t>
+          <t>reactionTime</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>0.04391166978725793</v>
+        <v>-0.5053471280814221</v>
       </c>
       <c r="D74" t="n">
-        <v>0.4308515807827019</v>
+        <v>2.099657985557351e-22</v>
       </c>
       <c r="E74" t="n">
         <v>324</v>
@@ -1996,19 +1996,19 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>tau</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>peakValue</t>
+          <t>peakTime</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>-0.3608237401916921</v>
+        <v>0.08231772652059781</v>
       </c>
       <c r="D75" t="n">
-        <v>2.132392927712678e-11</v>
+        <v>0.1392732829440573</v>
       </c>
       <c r="E75" t="n">
         <v>324</v>
@@ -2017,19 +2017,19 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>tau</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>PTPA</t>
+          <t>difference</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>-0.3619146609637327</v>
+        <v>0.4027230895766142</v>
       </c>
       <c r="D76" t="n">
-        <v>1.83739462916755e-11</v>
+        <v>4.600172341288581e-14</v>
       </c>
       <c r="E76" t="n">
         <v>324</v>
@@ -2038,19 +2038,19 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>tau</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>PTTA</t>
+          <t>peakValue</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>-0.3697858819246019</v>
+        <v>0.8666803560408876</v>
       </c>
       <c r="D77" t="n">
-        <v>6.170330193987365e-12</v>
+        <v>2.881333234564617e-99</v>
       </c>
       <c r="E77" t="n">
         <v>324</v>
@@ -2059,19 +2059,19 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>tau</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>RMS</t>
+          <t>PTPA</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>-0.2230725522077694</v>
+        <v>0.8656005042472068</v>
       </c>
       <c r="D78" t="n">
-        <v>5.101072185643623e-05</v>
+        <v>9.632359386911759e-99</v>
       </c>
       <c r="E78" t="n">
         <v>324</v>
@@ -2080,19 +2080,19 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>tau</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>AUC</t>
+          <t>PTTA</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>0.01861960078678345</v>
+        <v>0.8548426361983144</v>
       </c>
       <c r="D79" t="n">
-        <v>0.7384652574683481</v>
+        <v>9.30733276197629e-94</v>
       </c>
       <c r="E79" t="n">
         <v>324</v>
@@ -2101,43 +2101,43 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>tau</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>percentPPI</t>
+          <t>RMS</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>-0.01478935882937184</v>
+        <v>0.9462434523640613</v>
       </c>
       <c r="D80" t="n">
-        <v>0.7966666896562247</v>
+        <v>6.787495552841697e-160</v>
       </c>
       <c r="E80" t="n">
-        <v>306</v>
+        <v>324</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
+          <t>AUC</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
           <t>tau</t>
         </is>
       </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>prepulse_intensity</t>
-        </is>
-      </c>
       <c r="C81" t="n">
-        <v>0.03132349175255736</v>
+        <v>0.01861960078678345</v>
       </c>
       <c r="D81" t="n">
-        <v>0.5851836545412548</v>
+        <v>0.7384652574683481</v>
       </c>
       <c r="E81" t="n">
-        <v>306</v>
+        <v>324</v>
       </c>
     </row>
     <row r="82">
@@ -2148,182 +2148,182 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>reactionTime</t>
+          <t>percentPPI</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>-0.5053471280814221</v>
+        <v>-0.2347481141465456</v>
       </c>
       <c r="D82" t="n">
-        <v>2.099657985557351e-22</v>
+        <v>3.358132540764515e-05</v>
       </c>
       <c r="E82" t="n">
-        <v>324</v>
+        <v>306</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>AUC</t>
+          <t>percentPPI</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>peakTime</t>
+          <t>reactionTime</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>0.08231772652059781</v>
+        <v>0.03890649099426113</v>
       </c>
       <c r="D83" t="n">
-        <v>0.1392732829440573</v>
+        <v>0.4977355530560077</v>
       </c>
       <c r="E83" t="n">
-        <v>324</v>
+        <v>306</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>AUC</t>
+          <t>percentPPI</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>difference</t>
+          <t>peakTime</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>0.4027230895766142</v>
+        <v>0.03579197499173792</v>
       </c>
       <c r="D84" t="n">
-        <v>4.600172341288581e-14</v>
+        <v>0.5327974887068463</v>
       </c>
       <c r="E84" t="n">
-        <v>324</v>
+        <v>306</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>AUC</t>
+          <t>percentPPI</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>peakValue</t>
+          <t>difference</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>0.8666803560408876</v>
+        <v>0.008482784652718754</v>
       </c>
       <c r="D85" t="n">
-        <v>2.881333234564617e-99</v>
+        <v>0.8825136444448201</v>
       </c>
       <c r="E85" t="n">
-        <v>324</v>
+        <v>306</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>AUC</t>
+          <t>percentPPI</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>PTPA</t>
+          <t>peakValue</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>0.8656005042472068</v>
+        <v>-0.1885675814846345</v>
       </c>
       <c r="D86" t="n">
-        <v>9.632359386911759e-99</v>
+        <v>0.0009168492015015011</v>
       </c>
       <c r="E86" t="n">
-        <v>324</v>
+        <v>306</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>AUC</t>
+          <t>percentPPI</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>PTTA</t>
+          <t>PTPA</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>0.8548426361983144</v>
+        <v>-0.1892722523092322</v>
       </c>
       <c r="D87" t="n">
-        <v>9.30733276197629e-94</v>
+        <v>0.0008763261928432954</v>
       </c>
       <c r="E87" t="n">
-        <v>324</v>
+        <v>306</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>AUC</t>
+          <t>percentPPI</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>RMS</t>
+          <t>PTTA</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>0.9462434523640613</v>
+        <v>-0.1947253480584713</v>
       </c>
       <c r="D88" t="n">
-        <v>6.787495552841697e-160</v>
+        <v>0.000614332691500957</v>
       </c>
       <c r="E88" t="n">
-        <v>324</v>
+        <v>306</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>AUC</t>
+          <t>percentPPI</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>tau</t>
+          <t>RMS</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>0.01861960078678345</v>
+        <v>-0.2120056831058614</v>
       </c>
       <c r="D89" t="n">
-        <v>0.7384652574683481</v>
+        <v>0.00018699893389188</v>
       </c>
       <c r="E89" t="n">
-        <v>324</v>
+        <v>306</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>AUC</t>
+          <t>percentPPI</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>percentPPI</t>
+          <t>tau</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>-0.2347481141465456</v>
+        <v>-0.01478935882937184</v>
       </c>
       <c r="D90" t="n">
-        <v>3.358132540764515e-05</v>
+        <v>0.7966666896562247</v>
       </c>
       <c r="E90" t="n">
         <v>306</v>
@@ -2332,441 +2332,21 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
+          <t>percentPPI</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
           <t>AUC</t>
         </is>
       </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>prepulse_intensity</t>
-        </is>
-      </c>
       <c r="C91" t="n">
-        <v>0.08037620865197001</v>
+        <v>-0.2347481141465456</v>
       </c>
       <c r="D91" t="n">
-        <v>0.1607584742092133</v>
+        <v>3.358132540764515e-05</v>
       </c>
       <c r="E91" t="n">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>percentPPI</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>reactionTime</t>
-        </is>
-      </c>
-      <c r="C92" t="n">
-        <v>0.03890649099426113</v>
-      </c>
-      <c r="D92" t="n">
-        <v>0.4977355530560077</v>
-      </c>
-      <c r="E92" t="n">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>percentPPI</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>peakTime</t>
-        </is>
-      </c>
-      <c r="C93" t="n">
-        <v>0.03579197499173792</v>
-      </c>
-      <c r="D93" t="n">
-        <v>0.5327974887068463</v>
-      </c>
-      <c r="E93" t="n">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>percentPPI</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>difference</t>
-        </is>
-      </c>
-      <c r="C94" t="n">
-        <v>0.008482784652718754</v>
-      </c>
-      <c r="D94" t="n">
-        <v>0.8825136444448201</v>
-      </c>
-      <c r="E94" t="n">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>percentPPI</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>peakValue</t>
-        </is>
-      </c>
-      <c r="C95" t="n">
-        <v>-0.1885675814846345</v>
-      </c>
-      <c r="D95" t="n">
-        <v>0.0009168492015015011</v>
-      </c>
-      <c r="E95" t="n">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>percentPPI</t>
-        </is>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>PTPA</t>
-        </is>
-      </c>
-      <c r="C96" t="n">
-        <v>-0.1892722523092322</v>
-      </c>
-      <c r="D96" t="n">
-        <v>0.0008763261928432954</v>
-      </c>
-      <c r="E96" t="n">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>percentPPI</t>
-        </is>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>PTTA</t>
-        </is>
-      </c>
-      <c r="C97" t="n">
-        <v>-0.1947253480584713</v>
-      </c>
-      <c r="D97" t="n">
-        <v>0.000614332691500957</v>
-      </c>
-      <c r="E97" t="n">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>percentPPI</t>
-        </is>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>RMS</t>
-        </is>
-      </c>
-      <c r="C98" t="n">
-        <v>-0.2120056831058614</v>
-      </c>
-      <c r="D98" t="n">
-        <v>0.00018699893389188</v>
-      </c>
-      <c r="E98" t="n">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>percentPPI</t>
-        </is>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>tau</t>
-        </is>
-      </c>
-      <c r="C99" t="n">
-        <v>-0.01478935882937184</v>
-      </c>
-      <c r="D99" t="n">
-        <v>0.7966666896562247</v>
-      </c>
-      <c r="E99" t="n">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>percentPPI</t>
-        </is>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>AUC</t>
-        </is>
-      </c>
-      <c r="C100" t="n">
-        <v>-0.2347481141465456</v>
-      </c>
-      <c r="D100" t="n">
-        <v>3.358132540764515e-05</v>
-      </c>
-      <c r="E100" t="n">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>percentPPI</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>prepulse_intensity</t>
-        </is>
-      </c>
-      <c r="C101" t="n">
-        <v>-0.3836640895876999</v>
-      </c>
-      <c r="D101" t="n">
-        <v>3.607818178506963e-12</v>
-      </c>
-      <c r="E101" t="n">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>prepulse_intensity</t>
-        </is>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>reactionTime</t>
-        </is>
-      </c>
-      <c r="C102" t="n">
-        <v>-0.2200880076601207</v>
-      </c>
-      <c r="D102" t="n">
-        <v>0.0001036371579573936</v>
-      </c>
-      <c r="E102" t="n">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>prepulse_intensity</t>
-        </is>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>peakTime</t>
-        </is>
-      </c>
-      <c r="C103" t="n">
-        <v>-0.07983990202631203</v>
-      </c>
-      <c r="D103" t="n">
-        <v>0.1635784247885434</v>
-      </c>
-      <c r="E103" t="n">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>prepulse_intensity</t>
-        </is>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>difference</t>
-        </is>
-      </c>
-      <c r="C104" t="n">
-        <v>0.1020516514807506</v>
-      </c>
-      <c r="D104" t="n">
-        <v>0.07466362867706661</v>
-      </c>
-      <c r="E104" t="n">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>prepulse_intensity</t>
-        </is>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>peakValue</t>
-        </is>
-      </c>
-      <c r="C105" t="n">
-        <v>0.06383660842508035</v>
-      </c>
-      <c r="D105" t="n">
-        <v>0.2656009986136634</v>
-      </c>
-      <c r="E105" t="n">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>prepulse_intensity</t>
-        </is>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>PTPA</t>
-        </is>
-      </c>
-      <c r="C106" t="n">
-        <v>0.06303129451266481</v>
-      </c>
-      <c r="D106" t="n">
-        <v>0.2716903964577436</v>
-      </c>
-      <c r="E106" t="n">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>prepulse_intensity</t>
-        </is>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>PTTA</t>
-        </is>
-      </c>
-      <c r="C107" t="n">
-        <v>0.07285344854712295</v>
-      </c>
-      <c r="D107" t="n">
-        <v>0.2037683058768996</v>
-      </c>
-      <c r="E107" t="n">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>prepulse_intensity</t>
-        </is>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>RMS</t>
-        </is>
-      </c>
-      <c r="C108" t="n">
-        <v>0.07523435479196669</v>
-      </c>
-      <c r="D108" t="n">
-        <v>0.1893385405395213</v>
-      </c>
-      <c r="E108" t="n">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>prepulse_intensity</t>
-        </is>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>tau</t>
-        </is>
-      </c>
-      <c r="C109" t="n">
-        <v>0.03132349175255736</v>
-      </c>
-      <c r="D109" t="n">
-        <v>0.5851836545412548</v>
-      </c>
-      <c r="E109" t="n">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>prepulse_intensity</t>
-        </is>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>AUC</t>
-        </is>
-      </c>
-      <c r="C110" t="n">
-        <v>0.08037620865197001</v>
-      </c>
-      <c r="D110" t="n">
-        <v>0.1607584742092133</v>
-      </c>
-      <c r="E110" t="n">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>prepulse_intensity</t>
-        </is>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>percentPPI</t>
-        </is>
-      </c>
-      <c r="C111" t="n">
-        <v>-0.3836640895876998</v>
-      </c>
-      <c r="D111" t="n">
-        <v>3.607818178506963e-12</v>
-      </c>
-      <c r="E111" t="n">
         <v>306</v>
       </c>
     </row>

--- a/Tester Results/ALL_VAR_CORRELATIONS.xlsx
+++ b/Tester Results/ALL_VAR_CORRELATIONS.xlsx
@@ -472,10 +472,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-0.03675932451552016</v>
+        <v>-0.02297141498272558</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5096816721186384</v>
+        <v>0.6803821122099751</v>
       </c>
       <c r="E2" t="n">
         <v>324</v>
@@ -493,10 +493,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-0.6685001195759162</v>
+        <v>-0.6776315331173353</v>
       </c>
       <c r="D3" t="n">
-        <v>2.589872747627608e-43</v>
+        <v>6.855312705124109e-45</v>
       </c>
       <c r="E3" t="n">
         <v>324</v>
@@ -514,10 +514,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-0.5366327396638366</v>
+        <v>-0.5337439615856781</v>
       </c>
       <c r="D4" t="n">
-        <v>1.467262702087708e-25</v>
+        <v>2.963402089587861e-25</v>
       </c>
       <c r="E4" t="n">
         <v>324</v>
@@ -535,10 +535,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-0.5358830559112744</v>
+        <v>-0.5331040454649807</v>
       </c>
       <c r="D5" t="n">
-        <v>1.762040888629613e-25</v>
+        <v>3.459552704319897e-25</v>
       </c>
       <c r="E5" t="n">
         <v>324</v>
@@ -556,10 +556,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-0.5368152924094414</v>
+        <v>-0.5331224327538355</v>
       </c>
       <c r="D6" t="n">
-        <v>1.403191880527584e-25</v>
+        <v>3.444214456116033e-25</v>
       </c>
       <c r="E6" t="n">
         <v>324</v>
@@ -577,10 +577,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-0.5373432466316143</v>
+        <v>-0.5323387926957828</v>
       </c>
       <c r="D7" t="n">
-        <v>1.233022897047101e-25</v>
+        <v>4.161304519536523e-25</v>
       </c>
       <c r="E7" t="n">
         <v>324</v>
@@ -598,10 +598,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.1360264914830115</v>
+        <v>0.1080566870229782</v>
       </c>
       <c r="D8" t="n">
-        <v>0.01426921990392389</v>
+        <v>0.05199244569026731</v>
       </c>
       <c r="E8" t="n">
         <v>324</v>
@@ -619,10 +619,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-0.5053471280814221</v>
+        <v>-0.5089064475985986</v>
       </c>
       <c r="D9" t="n">
-        <v>2.099657985557351e-22</v>
+        <v>9.535784191705703e-23</v>
       </c>
       <c r="E9" t="n">
         <v>324</v>
@@ -640,10 +640,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.03890649099426113</v>
+        <v>0.02559283584062272</v>
       </c>
       <c r="D10" t="n">
-        <v>0.4977355530560077</v>
+        <v>0.655645944269927</v>
       </c>
       <c r="E10" t="n">
         <v>306</v>
@@ -661,10 +661,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-0.03675932451552016</v>
+        <v>-0.02297141498272558</v>
       </c>
       <c r="D11" t="n">
-        <v>0.5096816721186384</v>
+        <v>0.6803821122099751</v>
       </c>
       <c r="E11" t="n">
         <v>324</v>
@@ -682,10 +682,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.6833323757453084</v>
+        <v>0.6578081381642109</v>
       </c>
       <c r="D12" t="n">
-        <v>6.638437475166306e-46</v>
+        <v>1.549782289192476e-41</v>
       </c>
       <c r="E12" t="n">
         <v>324</v>
@@ -703,10 +703,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.02642327408287458</v>
+        <v>0.02262607734556411</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6355972725261866</v>
+        <v>0.6849282913932827</v>
       </c>
       <c r="E13" t="n">
         <v>324</v>
@@ -724,10 +724,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.01831694648481384</v>
+        <v>0.01540121695521815</v>
       </c>
       <c r="D14" t="n">
-        <v>0.7425651519716941</v>
+        <v>0.7824199142796232</v>
       </c>
       <c r="E14" t="n">
         <v>324</v>
@@ -745,10 +745,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.02198114049129878</v>
+        <v>0.01430062896809326</v>
       </c>
       <c r="D15" t="n">
-        <v>0.6934489064461434</v>
+        <v>0.7976191583705808</v>
       </c>
       <c r="E15" t="n">
         <v>324</v>
@@ -766,10 +766,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.07371888182879792</v>
+        <v>0.07073731297143351</v>
       </c>
       <c r="D16" t="n">
-        <v>0.1856316047312557</v>
+        <v>0.2041053141454388</v>
       </c>
       <c r="E16" t="n">
         <v>324</v>
@@ -787,10 +787,10 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.1604258341398364</v>
+        <v>0.1836483991777754</v>
       </c>
       <c r="D17" t="n">
-        <v>0.003788208172312706</v>
+        <v>0.0008963571980330894</v>
       </c>
       <c r="E17" t="n">
         <v>324</v>
@@ -808,10 +808,10 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.08231772652059781</v>
+        <v>0.08553933049464442</v>
       </c>
       <c r="D18" t="n">
-        <v>0.1392732829440573</v>
+        <v>0.1243975007998712</v>
       </c>
       <c r="E18" t="n">
         <v>324</v>
@@ -829,10 +829,10 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.03579197499173792</v>
+        <v>0.02906396405187523</v>
       </c>
       <c r="D19" t="n">
-        <v>0.5327974887068463</v>
+        <v>0.6125492233785037</v>
       </c>
       <c r="E19" t="n">
         <v>306</v>
@@ -850,10 +850,10 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-0.6685001195759162</v>
+        <v>-0.6776315331173353</v>
       </c>
       <c r="D20" t="n">
-        <v>2.589872747627608e-43</v>
+        <v>6.855312705124109e-45</v>
       </c>
       <c r="E20" t="n">
         <v>324</v>
@@ -871,10 +871,10 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.6833323757453084</v>
+        <v>0.6578081381642109</v>
       </c>
       <c r="D21" t="n">
-        <v>6.638437475166306e-46</v>
+        <v>1.549782289192476e-41</v>
       </c>
       <c r="E21" t="n">
         <v>324</v>
@@ -892,10 +892,10 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.3657026322248481</v>
+        <v>0.3764176414633426</v>
       </c>
       <c r="D22" t="n">
-        <v>1.090828287991331e-11</v>
+        <v>2.403940254713601e-12</v>
       </c>
       <c r="E22" t="n">
         <v>324</v>
@@ -913,10 +913,10 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.3586161081252614</v>
+        <v>0.3701072988952363</v>
       </c>
       <c r="D23" t="n">
-        <v>2.877241276025363e-11</v>
+        <v>5.897687301885202e-12</v>
       </c>
       <c r="E23" t="n">
         <v>324</v>
@@ -934,10 +934,10 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.3648335589708881</v>
+        <v>0.3728771024422141</v>
       </c>
       <c r="D24" t="n">
-        <v>1.23019286481984e-11</v>
+        <v>3.986995035304977e-12</v>
       </c>
       <c r="E24" t="n">
         <v>324</v>
@@ -955,10 +955,10 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.4101406426089916</v>
+        <v>0.4202224533923655</v>
       </c>
       <c r="D25" t="n">
-        <v>1.412874734407792e-14</v>
+        <v>2.70778911614327e-15</v>
       </c>
       <c r="E25" t="n">
         <v>324</v>
@@ -976,10 +976,10 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.04391166978725793</v>
+        <v>0.07182096164655703</v>
       </c>
       <c r="D26" t="n">
-        <v>0.4308515807827019</v>
+        <v>0.1972428607834439</v>
       </c>
       <c r="E26" t="n">
         <v>324</v>
@@ -997,10 +997,10 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.4027230895766142</v>
+        <v>0.4214586104568563</v>
       </c>
       <c r="D27" t="n">
-        <v>4.600172341288581e-14</v>
+        <v>2.202791769937914e-15</v>
       </c>
       <c r="E27" t="n">
         <v>324</v>
@@ -1018,10 +1018,10 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.008482784652718756</v>
+        <v>0.01787973614569829</v>
       </c>
       <c r="D28" t="n">
-        <v>0.8825136444448201</v>
+        <v>0.7554110453567462</v>
       </c>
       <c r="E28" t="n">
         <v>306</v>
@@ -1039,10 +1039,10 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>-0.5366327396638366</v>
+        <v>-0.5337439615856781</v>
       </c>
       <c r="D29" t="n">
-        <v>1.467262702087708e-25</v>
+        <v>2.963402089587861e-25</v>
       </c>
       <c r="E29" t="n">
         <v>324</v>
@@ -1060,10 +1060,10 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.02642327408287458</v>
+        <v>0.02262607734556411</v>
       </c>
       <c r="D30" t="n">
-        <v>0.6355972725261866</v>
+        <v>0.6849282913932827</v>
       </c>
       <c r="E30" t="n">
         <v>324</v>
@@ -1081,10 +1081,10 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.3657026322248481</v>
+        <v>0.3764176414633427</v>
       </c>
       <c r="D31" t="n">
-        <v>1.090828287991331e-11</v>
+        <v>2.403940254713601e-12</v>
       </c>
       <c r="E31" t="n">
         <v>324</v>
@@ -1102,7 +1102,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.9996349206433556</v>
+        <v>0.9996726722655823</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -1123,7 +1123,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.9962047267192415</v>
+        <v>0.9955469848050578</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -1144,10 +1144,10 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.9744697617510893</v>
+        <v>0.9757603753257609</v>
       </c>
       <c r="D34" t="n">
-        <v>5.783590831327313e-211</v>
+        <v>1.514085760529358e-214</v>
       </c>
       <c r="E34" t="n">
         <v>324</v>
@@ -1165,10 +1165,10 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>-0.3608237401916921</v>
+        <v>-0.3337169943560488</v>
       </c>
       <c r="D35" t="n">
-        <v>2.132392927712678e-11</v>
+        <v>7.219336921500617e-10</v>
       </c>
       <c r="E35" t="n">
         <v>324</v>
@@ -1186,10 +1186,10 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.8666803560408877</v>
+        <v>0.8695765689561794</v>
       </c>
       <c r="D36" t="n">
-        <v>2.881333234564207e-99</v>
+        <v>1.073631415191734e-100</v>
       </c>
       <c r="E36" t="n">
         <v>324</v>
@@ -1207,10 +1207,10 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>-0.1885675814846345</v>
+        <v>-0.1844551918620594</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0009168492015015011</v>
+        <v>0.001189862936612497</v>
       </c>
       <c r="E37" t="n">
         <v>306</v>
@@ -1228,10 +1228,10 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>-0.5358830559112745</v>
+        <v>-0.5331040454649807</v>
       </c>
       <c r="D38" t="n">
-        <v>1.762040888629575e-25</v>
+        <v>3.459552704319897e-25</v>
       </c>
       <c r="E38" t="n">
         <v>324</v>
@@ -1249,10 +1249,10 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.01831694648481384</v>
+        <v>0.01540121695521814</v>
       </c>
       <c r="D39" t="n">
-        <v>0.7425651519716943</v>
+        <v>0.7824199142796232</v>
       </c>
       <c r="E39" t="n">
         <v>324</v>
@@ -1270,10 +1270,10 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.3586161081252614</v>
+        <v>0.3701072988952363</v>
       </c>
       <c r="D40" t="n">
-        <v>2.877241276025363e-11</v>
+        <v>5.897687301885202e-12</v>
       </c>
       <c r="E40" t="n">
         <v>324</v>
@@ -1291,7 +1291,7 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.9996349206433556</v>
+        <v>0.9996726722655822</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.9957962628292348</v>
+        <v>0.995154134236457</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -1333,10 +1333,10 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0.9735343395404321</v>
+        <v>0.9750845307531208</v>
       </c>
       <c r="D43" t="n">
-        <v>1.760212437546593e-208</v>
+        <v>1.200547734868752e-212</v>
       </c>
       <c r="E43" t="n">
         <v>324</v>
@@ -1354,10 +1354,10 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>-0.3619146609637326</v>
+        <v>-0.3346757463155444</v>
       </c>
       <c r="D44" t="n">
-        <v>1.837394629167563e-11</v>
+        <v>6.41020982821592e-10</v>
       </c>
       <c r="E44" t="n">
         <v>324</v>
@@ -1375,10 +1375,10 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0.8656005042472067</v>
+        <v>0.8687179023993564</v>
       </c>
       <c r="D45" t="n">
-        <v>9.63235938691313e-99</v>
+        <v>2.870723040422579e-100</v>
       </c>
       <c r="E45" t="n">
         <v>324</v>
@@ -1396,10 +1396,10 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>-0.1892722523092322</v>
+        <v>-0.1848753154775971</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0008763261928432954</v>
+        <v>0.001158883166971444</v>
       </c>
       <c r="E46" t="n">
         <v>306</v>
@@ -1417,10 +1417,10 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>-0.5368152924094414</v>
+        <v>-0.5331224327538355</v>
       </c>
       <c r="D47" t="n">
-        <v>1.403191880527584e-25</v>
+        <v>3.444214456116033e-25</v>
       </c>
       <c r="E47" t="n">
         <v>324</v>
@@ -1438,10 +1438,10 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0.02198114049129878</v>
+        <v>0.01430062896809326</v>
       </c>
       <c r="D48" t="n">
-        <v>0.6934489064461434</v>
+        <v>0.7976191583705808</v>
       </c>
       <c r="E48" t="n">
         <v>324</v>
@@ -1459,10 +1459,10 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0.3648335589708881</v>
+        <v>0.3728771024422141</v>
       </c>
       <c r="D49" t="n">
-        <v>1.23019286481984e-11</v>
+        <v>3.986995035304977e-12</v>
       </c>
       <c r="E49" t="n">
         <v>324</v>
@@ -1480,7 +1480,7 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0.9962047267192415</v>
+        <v>0.9955469848050579</v>
       </c>
       <c r="D50" t="n">
         <v>0</v>
@@ -1501,7 +1501,7 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0.9957962628292349</v>
+        <v>0.9951541342364569</v>
       </c>
       <c r="D51" t="n">
         <v>0</v>
@@ -1522,10 +1522,10 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>0.9675629828423052</v>
+        <v>0.9680543727582323</v>
       </c>
       <c r="D52" t="n">
-        <v>1.82811085533007e-194</v>
+        <v>1.628905297877852e-195</v>
       </c>
       <c r="E52" t="n">
         <v>324</v>
@@ -1543,10 +1543,10 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>-0.3697858819246019</v>
+        <v>-0.3412626484072999</v>
       </c>
       <c r="D53" t="n">
-        <v>6.170330193987456e-12</v>
+        <v>2.801270356916734e-10</v>
       </c>
       <c r="E53" t="n">
         <v>324</v>
@@ -1564,10 +1564,10 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>0.8548426361983144</v>
+        <v>0.8573235754519213</v>
       </c>
       <c r="D54" t="n">
-        <v>9.30733276197629e-94</v>
+        <v>7.172230378409359e-95</v>
       </c>
       <c r="E54" t="n">
         <v>324</v>
@@ -1585,10 +1585,10 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>-0.1947253480584713</v>
+        <v>-0.1909312876808557</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0006143326915009552</v>
+        <v>0.0007873584754025096</v>
       </c>
       <c r="E55" t="n">
         <v>306</v>
@@ -1606,10 +1606,10 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>-0.5373432466316141</v>
+        <v>-0.5323387926957828</v>
       </c>
       <c r="D56" t="n">
-        <v>1.233022897047154e-25</v>
+        <v>4.161304519536523e-25</v>
       </c>
       <c r="E56" t="n">
         <v>324</v>
@@ -1627,10 +1627,10 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>0.07371888182879793</v>
+        <v>0.07073731297143351</v>
       </c>
       <c r="D57" t="n">
-        <v>0.1856316047312556</v>
+        <v>0.2041053141454388</v>
       </c>
       <c r="E57" t="n">
         <v>324</v>
@@ -1648,10 +1648,10 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>0.4101406426089916</v>
+        <v>0.4202224533923655</v>
       </c>
       <c r="D58" t="n">
-        <v>1.412874734407832e-14</v>
+        <v>2.70778911614327e-15</v>
       </c>
       <c r="E58" t="n">
         <v>324</v>
@@ -1669,10 +1669,10 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>0.9744697617510895</v>
+        <v>0.9757603753257609</v>
       </c>
       <c r="D59" t="n">
-        <v>5.783590831323696e-211</v>
+        <v>1.514085760529358e-214</v>
       </c>
       <c r="E59" t="n">
         <v>324</v>
@@ -1690,10 +1690,10 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>0.9735343395404321</v>
+        <v>0.9750845307531208</v>
       </c>
       <c r="D60" t="n">
-        <v>1.760212437546593e-208</v>
+        <v>1.200547734868752e-212</v>
       </c>
       <c r="E60" t="n">
         <v>324</v>
@@ -1711,10 +1711,10 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>0.9675629828423052</v>
+        <v>0.9680543727582323</v>
       </c>
       <c r="D61" t="n">
-        <v>1.82811085533007e-194</v>
+        <v>1.628905297877852e-195</v>
       </c>
       <c r="E61" t="n">
         <v>324</v>
@@ -1732,10 +1732,10 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>-0.2230725522077694</v>
+        <v>-0.1981888453492212</v>
       </c>
       <c r="D62" t="n">
-        <v>5.101072185643623e-05</v>
+        <v>0.0003315938160040955</v>
       </c>
       <c r="E62" t="n">
         <v>324</v>
@@ -1753,10 +1753,10 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>0.9462434523640613</v>
+        <v>0.9463424177436428</v>
       </c>
       <c r="D63" t="n">
-        <v>6.787495552841697e-160</v>
+        <v>5.086000778197558e-160</v>
       </c>
       <c r="E63" t="n">
         <v>324</v>
@@ -1774,10 +1774,10 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>-0.2120056831058614</v>
+        <v>-0.2101175638047061</v>
       </c>
       <c r="D64" t="n">
-        <v>0.00018699893389188</v>
+        <v>0.0002139714760230592</v>
       </c>
       <c r="E64" t="n">
         <v>306</v>
@@ -1795,10 +1795,10 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>0.1360264914830115</v>
+        <v>0.1080566870229782</v>
       </c>
       <c r="D65" t="n">
-        <v>0.01426921990392392</v>
+        <v>0.05199244569026731</v>
       </c>
       <c r="E65" t="n">
         <v>324</v>
@@ -1816,10 +1816,10 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>0.1604258341398364</v>
+        <v>0.1836483991777754</v>
       </c>
       <c r="D66" t="n">
-        <v>0.003788208172312706</v>
+        <v>0.0008963571980330894</v>
       </c>
       <c r="E66" t="n">
         <v>324</v>
@@ -1837,10 +1837,10 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>0.04391166978725793</v>
+        <v>0.07182096164655705</v>
       </c>
       <c r="D67" t="n">
-        <v>0.4308515807827019</v>
+        <v>0.197242860783444</v>
       </c>
       <c r="E67" t="n">
         <v>324</v>
@@ -1858,10 +1858,10 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>-0.3608237401916921</v>
+        <v>-0.3337169943560488</v>
       </c>
       <c r="D68" t="n">
-        <v>2.132392927712678e-11</v>
+        <v>7.219336921500617e-10</v>
       </c>
       <c r="E68" t="n">
         <v>324</v>
@@ -1879,10 +1879,10 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>-0.3619146609637327</v>
+        <v>-0.3346757463155444</v>
       </c>
       <c r="D69" t="n">
-        <v>1.83739462916755e-11</v>
+        <v>6.41020982821592e-10</v>
       </c>
       <c r="E69" t="n">
         <v>324</v>
@@ -1900,10 +1900,10 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>-0.3697858819246019</v>
+        <v>-0.3412626484072999</v>
       </c>
       <c r="D70" t="n">
-        <v>6.170330193987365e-12</v>
+        <v>2.801270356916734e-10</v>
       </c>
       <c r="E70" t="n">
         <v>324</v>
@@ -1921,10 +1921,10 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>-0.2230725522077694</v>
+        <v>-0.1981888453492212</v>
       </c>
       <c r="D71" t="n">
-        <v>5.101072185643623e-05</v>
+        <v>0.0003315938160040955</v>
       </c>
       <c r="E71" t="n">
         <v>324</v>
@@ -1942,10 +1942,10 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>0.01861960078678345</v>
+        <v>0.0400504529297099</v>
       </c>
       <c r="D72" t="n">
-        <v>0.7384652574683481</v>
+        <v>0.4725043879560751</v>
       </c>
       <c r="E72" t="n">
         <v>324</v>
@@ -1963,10 +1963,10 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>-0.01478935882937184</v>
+        <v>-0.02491307818380599</v>
       </c>
       <c r="D73" t="n">
-        <v>0.7966666896562247</v>
+        <v>0.6642269514263663</v>
       </c>
       <c r="E73" t="n">
         <v>306</v>
@@ -1984,10 +1984,10 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>-0.5053471280814221</v>
+        <v>-0.5089064475985986</v>
       </c>
       <c r="D74" t="n">
-        <v>2.099657985557351e-22</v>
+        <v>9.535784191705703e-23</v>
       </c>
       <c r="E74" t="n">
         <v>324</v>
@@ -2005,10 +2005,10 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>0.08231772652059781</v>
+        <v>0.08553933049464441</v>
       </c>
       <c r="D75" t="n">
-        <v>0.1392732829440573</v>
+        <v>0.1243975007998714</v>
       </c>
       <c r="E75" t="n">
         <v>324</v>
@@ -2026,10 +2026,10 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>0.4027230895766142</v>
+        <v>0.4214586104568562</v>
       </c>
       <c r="D76" t="n">
-        <v>4.600172341288581e-14</v>
+        <v>2.202791769937954e-15</v>
       </c>
       <c r="E76" t="n">
         <v>324</v>
@@ -2047,10 +2047,10 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>0.8666803560408876</v>
+        <v>0.8695765689561793</v>
       </c>
       <c r="D77" t="n">
-        <v>2.881333234564617e-99</v>
+        <v>1.073631415191857e-100</v>
       </c>
       <c r="E77" t="n">
         <v>324</v>
@@ -2068,10 +2068,10 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>0.8656005042472068</v>
+        <v>0.8687179023993563</v>
       </c>
       <c r="D78" t="n">
-        <v>9.632359386911759e-99</v>
+        <v>2.870723040423151e-100</v>
       </c>
       <c r="E78" t="n">
         <v>324</v>
@@ -2089,10 +2089,10 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>0.8548426361983144</v>
+        <v>0.8573235754519214</v>
       </c>
       <c r="D79" t="n">
-        <v>9.30733276197629e-94</v>
+        <v>7.172230378408542e-95</v>
       </c>
       <c r="E79" t="n">
         <v>324</v>
@@ -2110,10 +2110,10 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>0.9462434523640613</v>
+        <v>0.9463424177436429</v>
       </c>
       <c r="D80" t="n">
-        <v>6.787495552841697e-160</v>
+        <v>5.086000778195823e-160</v>
       </c>
       <c r="E80" t="n">
         <v>324</v>
@@ -2131,10 +2131,10 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>0.01861960078678345</v>
+        <v>0.0400504529297099</v>
       </c>
       <c r="D81" t="n">
-        <v>0.7384652574683481</v>
+        <v>0.4725043879560751</v>
       </c>
       <c r="E81" t="n">
         <v>324</v>
@@ -2152,10 +2152,10 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>-0.2347481141465456</v>
+        <v>-0.2297541061318753</v>
       </c>
       <c r="D82" t="n">
-        <v>3.358132540764515e-05</v>
+        <v>4.970508345388607e-05</v>
       </c>
       <c r="E82" t="n">
         <v>306</v>
@@ -2173,10 +2173,10 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>0.03890649099426113</v>
+        <v>0.02559283584062272</v>
       </c>
       <c r="D83" t="n">
-        <v>0.4977355530560077</v>
+        <v>0.6556459442699272</v>
       </c>
       <c r="E83" t="n">
         <v>306</v>
@@ -2194,10 +2194,10 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>0.03579197499173792</v>
+        <v>0.02906396405187523</v>
       </c>
       <c r="D84" t="n">
-        <v>0.5327974887068463</v>
+        <v>0.6125492233785037</v>
       </c>
       <c r="E84" t="n">
         <v>306</v>
@@ -2215,10 +2215,10 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>0.008482784652718754</v>
+        <v>0.01787973614569829</v>
       </c>
       <c r="D85" t="n">
-        <v>0.8825136444448201</v>
+        <v>0.7554110453567462</v>
       </c>
       <c r="E85" t="n">
         <v>306</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>-0.1885675814846345</v>
+        <v>-0.1844551918620594</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0009168492015015011</v>
+        <v>0.001189862936612502</v>
       </c>
       <c r="E86" t="n">
         <v>306</v>
@@ -2257,10 +2257,10 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>-0.1892722523092322</v>
+        <v>-0.1848753154775971</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0008763261928432954</v>
+        <v>0.001158883166971444</v>
       </c>
       <c r="E87" t="n">
         <v>306</v>
@@ -2278,10 +2278,10 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>-0.1947253480584713</v>
+        <v>-0.1909312876808557</v>
       </c>
       <c r="D88" t="n">
-        <v>0.000614332691500957</v>
+        <v>0.0007873584754025096</v>
       </c>
       <c r="E88" t="n">
         <v>306</v>
@@ -2299,10 +2299,10 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>-0.2120056831058614</v>
+        <v>-0.2101175638047061</v>
       </c>
       <c r="D89" t="n">
-        <v>0.00018699893389188</v>
+        <v>0.0002139714760230587</v>
       </c>
       <c r="E89" t="n">
         <v>306</v>
@@ -2320,10 +2320,10 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>-0.01478935882937184</v>
+        <v>-0.02491307818380599</v>
       </c>
       <c r="D90" t="n">
-        <v>0.7966666896562247</v>
+        <v>0.6642269514263663</v>
       </c>
       <c r="E90" t="n">
         <v>306</v>
@@ -2341,10 +2341,10 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>-0.2347481141465456</v>
+        <v>-0.2297541061318753</v>
       </c>
       <c r="D91" t="n">
-        <v>3.358132540764515e-05</v>
+        <v>4.970508345388607e-05</v>
       </c>
       <c r="E91" t="n">
         <v>306</v>

--- a/Tester Results/ALL_VAR_CORRELATIONS.xlsx
+++ b/Tester Results/ALL_VAR_CORRELATIONS.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E91"/>
+  <dimension ref="A1:E73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -631,22 +631,22 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>peakTime</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>reactionTime</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>percentPPI</t>
-        </is>
-      </c>
       <c r="C10" t="n">
-        <v>0.02559283584062272</v>
+        <v>-0.02297141498272558</v>
       </c>
       <c r="D10" t="n">
-        <v>0.655645944269927</v>
+        <v>0.6803821122099751</v>
       </c>
       <c r="E10" t="n">
-        <v>306</v>
+        <v>324</v>
       </c>
     </row>
     <row r="11">
@@ -657,14 +657,14 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>reactionTime</t>
+          <t>difference</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-0.02297141498272558</v>
+        <v>0.6578081381642109</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6803821122099751</v>
+        <v>1.549782289192476e-41</v>
       </c>
       <c r="E11" t="n">
         <v>324</v>
@@ -678,14 +678,14 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>difference</t>
+          <t>peakValue</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.6578081381642109</v>
+        <v>0.02262607734556411</v>
       </c>
       <c r="D12" t="n">
-        <v>1.549782289192476e-41</v>
+        <v>0.6849282913932827</v>
       </c>
       <c r="E12" t="n">
         <v>324</v>
@@ -699,14 +699,14 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>peakValue</t>
+          <t>PTPA</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.02262607734556411</v>
+        <v>0.01540121695521815</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6849282913932827</v>
+        <v>0.7824199142796232</v>
       </c>
       <c r="E13" t="n">
         <v>324</v>
@@ -720,14 +720,14 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>PTPA</t>
+          <t>PTTA</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.01540121695521815</v>
+        <v>0.01430062896809326</v>
       </c>
       <c r="D14" t="n">
-        <v>0.7824199142796232</v>
+        <v>0.7976191583705808</v>
       </c>
       <c r="E14" t="n">
         <v>324</v>
@@ -741,14 +741,14 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>PTTA</t>
+          <t>RMS</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.01430062896809326</v>
+        <v>0.07073731297143351</v>
       </c>
       <c r="D15" t="n">
-        <v>0.7976191583705808</v>
+        <v>0.2041053141454388</v>
       </c>
       <c r="E15" t="n">
         <v>324</v>
@@ -762,14 +762,14 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>RMS</t>
+          <t>tau</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.07073731297143351</v>
+        <v>0.1836483991777754</v>
       </c>
       <c r="D16" t="n">
-        <v>0.2041053141454388</v>
+        <v>0.0008963571980330894</v>
       </c>
       <c r="E16" t="n">
         <v>324</v>
@@ -783,14 +783,14 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>tau</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.1836483991777754</v>
+        <v>0.08553933049464442</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0008963571980330894</v>
+        <v>0.1243975007998712</v>
       </c>
       <c r="E17" t="n">
         <v>324</v>
@@ -799,19 +799,19 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>peakTime</t>
+          <t>difference</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>AUC</t>
+          <t>reactionTime</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.08553933049464442</v>
+        <v>-0.6776315331173353</v>
       </c>
       <c r="D18" t="n">
-        <v>0.1243975007998712</v>
+        <v>6.855312705124109e-45</v>
       </c>
       <c r="E18" t="n">
         <v>324</v>
@@ -820,22 +820,22 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
+          <t>difference</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
           <t>peakTime</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>percentPPI</t>
-        </is>
-      </c>
       <c r="C19" t="n">
-        <v>0.02906396405187523</v>
+        <v>0.6578081381642109</v>
       </c>
       <c r="D19" t="n">
-        <v>0.6125492233785037</v>
+        <v>1.549782289192476e-41</v>
       </c>
       <c r="E19" t="n">
-        <v>306</v>
+        <v>324</v>
       </c>
     </row>
     <row r="20">
@@ -846,14 +846,14 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>reactionTime</t>
+          <t>peakValue</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-0.6776315331173353</v>
+        <v>0.3764176414633426</v>
       </c>
       <c r="D20" t="n">
-        <v>6.855312705124109e-45</v>
+        <v>2.403940254713601e-12</v>
       </c>
       <c r="E20" t="n">
         <v>324</v>
@@ -867,14 +867,14 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>peakTime</t>
+          <t>PTPA</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.6578081381642109</v>
+        <v>0.3701072988952363</v>
       </c>
       <c r="D21" t="n">
-        <v>1.549782289192476e-41</v>
+        <v>5.897687301885202e-12</v>
       </c>
       <c r="E21" t="n">
         <v>324</v>
@@ -888,14 +888,14 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>peakValue</t>
+          <t>PTTA</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.3764176414633426</v>
+        <v>0.3728771024422141</v>
       </c>
       <c r="D22" t="n">
-        <v>2.403940254713601e-12</v>
+        <v>3.986995035304977e-12</v>
       </c>
       <c r="E22" t="n">
         <v>324</v>
@@ -909,14 +909,14 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>PTPA</t>
+          <t>RMS</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.3701072988952363</v>
+        <v>0.4202224533923655</v>
       </c>
       <c r="D23" t="n">
-        <v>5.897687301885202e-12</v>
+        <v>2.70778911614327e-15</v>
       </c>
       <c r="E23" t="n">
         <v>324</v>
@@ -930,14 +930,14 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>PTTA</t>
+          <t>tau</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.3728771024422141</v>
+        <v>0.07182096164655703</v>
       </c>
       <c r="D24" t="n">
-        <v>3.986995035304977e-12</v>
+        <v>0.1972428607834439</v>
       </c>
       <c r="E24" t="n">
         <v>324</v>
@@ -951,14 +951,14 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>RMS</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.4202224533923655</v>
+        <v>0.4214586104568563</v>
       </c>
       <c r="D25" t="n">
-        <v>2.70778911614327e-15</v>
+        <v>2.202791769937914e-15</v>
       </c>
       <c r="E25" t="n">
         <v>324</v>
@@ -967,19 +967,19 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>difference</t>
+          <t>peakValue</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>tau</t>
+          <t>reactionTime</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.07182096164655703</v>
+        <v>-0.5337439615856781</v>
       </c>
       <c r="D26" t="n">
-        <v>0.1972428607834439</v>
+        <v>2.963402089587861e-25</v>
       </c>
       <c r="E26" t="n">
         <v>324</v>
@@ -988,19 +988,19 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>difference</t>
+          <t>peakValue</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>AUC</t>
+          <t>peakTime</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.4214586104568563</v>
+        <v>0.02262607734556411</v>
       </c>
       <c r="D27" t="n">
-        <v>2.202791769937914e-15</v>
+        <v>0.6849282913932827</v>
       </c>
       <c r="E27" t="n">
         <v>324</v>
@@ -1009,22 +1009,22 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
+          <t>peakValue</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
           <t>difference</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>percentPPI</t>
-        </is>
-      </c>
       <c r="C28" t="n">
-        <v>0.01787973614569829</v>
+        <v>0.3764176414633427</v>
       </c>
       <c r="D28" t="n">
-        <v>0.7554110453567462</v>
+        <v>2.403940254713601e-12</v>
       </c>
       <c r="E28" t="n">
-        <v>306</v>
+        <v>324</v>
       </c>
     </row>
     <row r="29">
@@ -1035,14 +1035,14 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>reactionTime</t>
+          <t>PTPA</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>-0.5337439615856781</v>
+        <v>0.9996726722655823</v>
       </c>
       <c r="D29" t="n">
-        <v>2.963402089587861e-25</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>324</v>
@@ -1056,14 +1056,14 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>peakTime</t>
+          <t>PTTA</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.02262607734556411</v>
+        <v>0.9955469848050578</v>
       </c>
       <c r="D30" t="n">
-        <v>0.6849282913932827</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>324</v>
@@ -1077,14 +1077,14 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>difference</t>
+          <t>RMS</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.3764176414633427</v>
+        <v>0.9757603753257609</v>
       </c>
       <c r="D31" t="n">
-        <v>2.403940254713601e-12</v>
+        <v>1.514085760529358e-214</v>
       </c>
       <c r="E31" t="n">
         <v>324</v>
@@ -1098,14 +1098,14 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>PTPA</t>
+          <t>tau</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.9996726722655823</v>
+        <v>-0.3337169943560488</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>7.219336921500617e-10</v>
       </c>
       <c r="E32" t="n">
         <v>324</v>
@@ -1119,14 +1119,14 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>PTTA</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.9955469848050578</v>
+        <v>0.8695765689561794</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>1.073631415191734e-100</v>
       </c>
       <c r="E33" t="n">
         <v>324</v>
@@ -1135,19 +1135,19 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>peakValue</t>
+          <t>PTPA</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>RMS</t>
+          <t>reactionTime</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.9757603753257609</v>
+        <v>-0.5331040454649807</v>
       </c>
       <c r="D34" t="n">
-        <v>1.514085760529358e-214</v>
+        <v>3.459552704319897e-25</v>
       </c>
       <c r="E34" t="n">
         <v>324</v>
@@ -1156,19 +1156,19 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>peakValue</t>
+          <t>PTPA</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>tau</t>
+          <t>peakTime</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>-0.3337169943560488</v>
+        <v>0.01540121695521814</v>
       </c>
       <c r="D35" t="n">
-        <v>7.219336921500617e-10</v>
+        <v>0.7824199142796232</v>
       </c>
       <c r="E35" t="n">
         <v>324</v>
@@ -1177,19 +1177,19 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>peakValue</t>
+          <t>PTPA</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>AUC</t>
+          <t>difference</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.8695765689561794</v>
+        <v>0.3701072988952363</v>
       </c>
       <c r="D36" t="n">
-        <v>1.073631415191734e-100</v>
+        <v>5.897687301885202e-12</v>
       </c>
       <c r="E36" t="n">
         <v>324</v>
@@ -1198,22 +1198,22 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
+          <t>PTPA</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
           <t>peakValue</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>percentPPI</t>
-        </is>
-      </c>
       <c r="C37" t="n">
-        <v>-0.1844551918620594</v>
+        <v>0.9996726722655822</v>
       </c>
       <c r="D37" t="n">
-        <v>0.001189862936612497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>306</v>
+        <v>324</v>
       </c>
     </row>
     <row r="38">
@@ -1224,14 +1224,14 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>reactionTime</t>
+          <t>PTTA</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>-0.5331040454649807</v>
+        <v>0.995154134236457</v>
       </c>
       <c r="D38" t="n">
-        <v>3.459552704319897e-25</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>324</v>
@@ -1245,14 +1245,14 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>peakTime</t>
+          <t>RMS</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.01540121695521814</v>
+        <v>0.9750845307531208</v>
       </c>
       <c r="D39" t="n">
-        <v>0.7824199142796232</v>
+        <v>1.200547734868752e-212</v>
       </c>
       <c r="E39" t="n">
         <v>324</v>
@@ -1266,14 +1266,14 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>difference</t>
+          <t>tau</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.3701072988952363</v>
+        <v>-0.3346757463155444</v>
       </c>
       <c r="D40" t="n">
-        <v>5.897687301885202e-12</v>
+        <v>6.41020982821592e-10</v>
       </c>
       <c r="E40" t="n">
         <v>324</v>
@@ -1287,14 +1287,14 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>peakValue</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.9996726722655822</v>
+        <v>0.8687179023993564</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>2.870723040422579e-100</v>
       </c>
       <c r="E41" t="n">
         <v>324</v>
@@ -1303,19 +1303,19 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>PTPA</t>
+          <t>PTTA</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>PTTA</t>
+          <t>reactionTime</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.995154134236457</v>
+        <v>-0.5331224327538355</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>3.444214456116033e-25</v>
       </c>
       <c r="E42" t="n">
         <v>324</v>
@@ -1324,19 +1324,19 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>PTPA</t>
+          <t>PTTA</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>RMS</t>
+          <t>peakTime</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0.9750845307531208</v>
+        <v>0.01430062896809326</v>
       </c>
       <c r="D43" t="n">
-        <v>1.200547734868752e-212</v>
+        <v>0.7976191583705808</v>
       </c>
       <c r="E43" t="n">
         <v>324</v>
@@ -1345,19 +1345,19 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>PTPA</t>
+          <t>PTTA</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>tau</t>
+          <t>difference</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>-0.3346757463155444</v>
+        <v>0.3728771024422141</v>
       </c>
       <c r="D44" t="n">
-        <v>6.41020982821592e-10</v>
+        <v>3.986995035304977e-12</v>
       </c>
       <c r="E44" t="n">
         <v>324</v>
@@ -1366,19 +1366,19 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>PTPA</t>
+          <t>PTTA</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>AUC</t>
+          <t>peakValue</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0.8687179023993564</v>
+        <v>0.9955469848050579</v>
       </c>
       <c r="D45" t="n">
-        <v>2.870723040422579e-100</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>324</v>
@@ -1387,22 +1387,22 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
+          <t>PTTA</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
           <t>PTPA</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>percentPPI</t>
-        </is>
-      </c>
       <c r="C46" t="n">
-        <v>-0.1848753154775971</v>
+        <v>0.9951541342364569</v>
       </c>
       <c r="D46" t="n">
-        <v>0.001158883166971444</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>306</v>
+        <v>324</v>
       </c>
     </row>
     <row r="47">
@@ -1413,14 +1413,14 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>reactionTime</t>
+          <t>RMS</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>-0.5331224327538355</v>
+        <v>0.9680543727582323</v>
       </c>
       <c r="D47" t="n">
-        <v>3.444214456116033e-25</v>
+        <v>1.628905297877852e-195</v>
       </c>
       <c r="E47" t="n">
         <v>324</v>
@@ -1434,14 +1434,14 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>peakTime</t>
+          <t>tau</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0.01430062896809326</v>
+        <v>-0.3412626484072999</v>
       </c>
       <c r="D48" t="n">
-        <v>0.7976191583705808</v>
+        <v>2.801270356916734e-10</v>
       </c>
       <c r="E48" t="n">
         <v>324</v>
@@ -1455,14 +1455,14 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>difference</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0.3728771024422141</v>
+        <v>0.8573235754519213</v>
       </c>
       <c r="D49" t="n">
-        <v>3.986995035304977e-12</v>
+        <v>7.172230378409359e-95</v>
       </c>
       <c r="E49" t="n">
         <v>324</v>
@@ -1471,19 +1471,19 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>PTTA</t>
+          <t>RMS</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>peakValue</t>
+          <t>reactionTime</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0.9955469848050579</v>
+        <v>-0.5323387926957828</v>
       </c>
       <c r="D50" t="n">
-        <v>0</v>
+        <v>4.161304519536523e-25</v>
       </c>
       <c r="E50" t="n">
         <v>324</v>
@@ -1492,19 +1492,19 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>PTTA</t>
+          <t>RMS</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>PTPA</t>
+          <t>peakTime</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0.9951541342364569</v>
+        <v>0.07073731297143351</v>
       </c>
       <c r="D51" t="n">
-        <v>0</v>
+        <v>0.2041053141454388</v>
       </c>
       <c r="E51" t="n">
         <v>324</v>
@@ -1513,19 +1513,19 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>PTTA</t>
+          <t>RMS</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>RMS</t>
+          <t>difference</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>0.9680543727582323</v>
+        <v>0.4202224533923655</v>
       </c>
       <c r="D52" t="n">
-        <v>1.628905297877852e-195</v>
+        <v>2.70778911614327e-15</v>
       </c>
       <c r="E52" t="n">
         <v>324</v>
@@ -1534,19 +1534,19 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>PTTA</t>
+          <t>RMS</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>tau</t>
+          <t>peakValue</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>-0.3412626484072999</v>
+        <v>0.9757603753257609</v>
       </c>
       <c r="D53" t="n">
-        <v>2.801270356916734e-10</v>
+        <v>1.514085760529358e-214</v>
       </c>
       <c r="E53" t="n">
         <v>324</v>
@@ -1555,19 +1555,19 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>PTTA</t>
+          <t>RMS</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>AUC</t>
+          <t>PTPA</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>0.8573235754519213</v>
+        <v>0.9750845307531208</v>
       </c>
       <c r="D54" t="n">
-        <v>7.172230378409359e-95</v>
+        <v>1.200547734868752e-212</v>
       </c>
       <c r="E54" t="n">
         <v>324</v>
@@ -1576,22 +1576,22 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
+          <t>RMS</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
           <t>PTTA</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>percentPPI</t>
-        </is>
-      </c>
       <c r="C55" t="n">
-        <v>-0.1909312876808557</v>
+        <v>0.9680543727582323</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0007873584754025096</v>
+        <v>1.628905297877852e-195</v>
       </c>
       <c r="E55" t="n">
-        <v>306</v>
+        <v>324</v>
       </c>
     </row>
     <row r="56">
@@ -1602,14 +1602,14 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>reactionTime</t>
+          <t>tau</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>-0.5323387926957828</v>
+        <v>-0.1981888453492212</v>
       </c>
       <c r="D56" t="n">
-        <v>4.161304519536523e-25</v>
+        <v>0.0003315938160040955</v>
       </c>
       <c r="E56" t="n">
         <v>324</v>
@@ -1623,14 +1623,14 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>peakTime</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>0.07073731297143351</v>
+        <v>0.9463424177436428</v>
       </c>
       <c r="D57" t="n">
-        <v>0.2041053141454388</v>
+        <v>5.086000778197558e-160</v>
       </c>
       <c r="E57" t="n">
         <v>324</v>
@@ -1639,19 +1639,19 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>RMS</t>
+          <t>tau</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>difference</t>
+          <t>reactionTime</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>0.4202224533923655</v>
+        <v>0.1080566870229782</v>
       </c>
       <c r="D58" t="n">
-        <v>2.70778911614327e-15</v>
+        <v>0.05199244569026731</v>
       </c>
       <c r="E58" t="n">
         <v>324</v>
@@ -1660,19 +1660,19 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>RMS</t>
+          <t>tau</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>peakValue</t>
+          <t>peakTime</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>0.9757603753257609</v>
+        <v>0.1836483991777754</v>
       </c>
       <c r="D59" t="n">
-        <v>1.514085760529358e-214</v>
+        <v>0.0008963571980330894</v>
       </c>
       <c r="E59" t="n">
         <v>324</v>
@@ -1681,19 +1681,19 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>RMS</t>
+          <t>tau</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>PTPA</t>
+          <t>difference</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>0.9750845307531208</v>
+        <v>0.07182096164655705</v>
       </c>
       <c r="D60" t="n">
-        <v>1.200547734868752e-212</v>
+        <v>0.197242860783444</v>
       </c>
       <c r="E60" t="n">
         <v>324</v>
@@ -1702,19 +1702,19 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>RMS</t>
+          <t>tau</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>PTTA</t>
+          <t>peakValue</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>0.9680543727582323</v>
+        <v>-0.3337169943560488</v>
       </c>
       <c r="D61" t="n">
-        <v>1.628905297877852e-195</v>
+        <v>7.219336921500617e-10</v>
       </c>
       <c r="E61" t="n">
         <v>324</v>
@@ -1723,19 +1723,19 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>RMS</t>
+          <t>tau</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>tau</t>
+          <t>PTPA</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>-0.1981888453492212</v>
+        <v>-0.3346757463155444</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0003315938160040955</v>
+        <v>6.41020982821592e-10</v>
       </c>
       <c r="E62" t="n">
         <v>324</v>
@@ -1744,19 +1744,19 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>RMS</t>
+          <t>tau</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>AUC</t>
+          <t>PTTA</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>0.9463424177436428</v>
+        <v>-0.3412626484072999</v>
       </c>
       <c r="D63" t="n">
-        <v>5.086000778197558e-160</v>
+        <v>2.801270356916734e-10</v>
       </c>
       <c r="E63" t="n">
         <v>324</v>
@@ -1765,22 +1765,22 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
+          <t>tau</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
           <t>RMS</t>
         </is>
       </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>percentPPI</t>
-        </is>
-      </c>
       <c r="C64" t="n">
-        <v>-0.2101175638047061</v>
+        <v>-0.1981888453492212</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0002139714760230592</v>
+        <v>0.0003315938160040955</v>
       </c>
       <c r="E64" t="n">
-        <v>306</v>
+        <v>324</v>
       </c>
     </row>
     <row r="65">
@@ -1791,14 +1791,14 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>reactionTime</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>0.1080566870229782</v>
+        <v>0.0400504529297099</v>
       </c>
       <c r="D65" t="n">
-        <v>0.05199244569026731</v>
+        <v>0.4725043879560751</v>
       </c>
       <c r="E65" t="n">
         <v>324</v>
@@ -1807,19 +1807,19 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>tau</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>peakTime</t>
+          <t>reactionTime</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>0.1836483991777754</v>
+        <v>-0.5089064475985986</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0008963571980330894</v>
+        <v>9.535784191705703e-23</v>
       </c>
       <c r="E66" t="n">
         <v>324</v>
@@ -1828,19 +1828,19 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>tau</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>difference</t>
+          <t>peakTime</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>0.07182096164655705</v>
+        <v>0.08553933049464441</v>
       </c>
       <c r="D67" t="n">
-        <v>0.197242860783444</v>
+        <v>0.1243975007998714</v>
       </c>
       <c r="E67" t="n">
         <v>324</v>
@@ -1849,19 +1849,19 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>tau</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>peakValue</t>
+          <t>difference</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>-0.3337169943560488</v>
+        <v>0.4214586104568562</v>
       </c>
       <c r="D68" t="n">
-        <v>7.219336921500617e-10</v>
+        <v>2.202791769937954e-15</v>
       </c>
       <c r="E68" t="n">
         <v>324</v>
@@ -1870,19 +1870,19 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>tau</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>PTPA</t>
+          <t>peakValue</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>-0.3346757463155444</v>
+        <v>0.8695765689561793</v>
       </c>
       <c r="D69" t="n">
-        <v>6.41020982821592e-10</v>
+        <v>1.073631415191857e-100</v>
       </c>
       <c r="E69" t="n">
         <v>324</v>
@@ -1891,19 +1891,19 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>tau</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>PTTA</t>
+          <t>PTPA</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>-0.3412626484072999</v>
+        <v>0.8687179023993563</v>
       </c>
       <c r="D70" t="n">
-        <v>2.801270356916734e-10</v>
+        <v>2.870723040423151e-100</v>
       </c>
       <c r="E70" t="n">
         <v>324</v>
@@ -1912,19 +1912,19 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>tau</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>RMS</t>
+          <t>PTTA</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>-0.1981888453492212</v>
+        <v>0.8573235754519214</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0003315938160040955</v>
+        <v>7.172230378408542e-95</v>
       </c>
       <c r="E71" t="n">
         <v>324</v>
@@ -1933,19 +1933,19 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>tau</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>AUC</t>
+          <t>RMS</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>0.0400504529297099</v>
+        <v>0.9463424177436429</v>
       </c>
       <c r="D72" t="n">
-        <v>0.4725043879560751</v>
+        <v>5.086000778195823e-160</v>
       </c>
       <c r="E72" t="n">
         <v>324</v>
@@ -1954,400 +1954,22 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
+          <t>AUC</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
           <t>tau</t>
         </is>
       </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>percentPPI</t>
-        </is>
-      </c>
       <c r="C73" t="n">
-        <v>-0.02491307818380599</v>
+        <v>0.0400504529297099</v>
       </c>
       <c r="D73" t="n">
-        <v>0.6642269514263663</v>
+        <v>0.4725043879560751</v>
       </c>
       <c r="E73" t="n">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>AUC</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>reactionTime</t>
-        </is>
-      </c>
-      <c r="C74" t="n">
-        <v>-0.5089064475985986</v>
-      </c>
-      <c r="D74" t="n">
-        <v>9.535784191705703e-23</v>
-      </c>
-      <c r="E74" t="n">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>AUC</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>peakTime</t>
-        </is>
-      </c>
-      <c r="C75" t="n">
-        <v>0.08553933049464441</v>
-      </c>
-      <c r="D75" t="n">
-        <v>0.1243975007998714</v>
-      </c>
-      <c r="E75" t="n">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>AUC</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>difference</t>
-        </is>
-      </c>
-      <c r="C76" t="n">
-        <v>0.4214586104568562</v>
-      </c>
-      <c r="D76" t="n">
-        <v>2.202791769937954e-15</v>
-      </c>
-      <c r="E76" t="n">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>AUC</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>peakValue</t>
-        </is>
-      </c>
-      <c r="C77" t="n">
-        <v>0.8695765689561793</v>
-      </c>
-      <c r="D77" t="n">
-        <v>1.073631415191857e-100</v>
-      </c>
-      <c r="E77" t="n">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>AUC</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>PTPA</t>
-        </is>
-      </c>
-      <c r="C78" t="n">
-        <v>0.8687179023993563</v>
-      </c>
-      <c r="D78" t="n">
-        <v>2.870723040423151e-100</v>
-      </c>
-      <c r="E78" t="n">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>AUC</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>PTTA</t>
-        </is>
-      </c>
-      <c r="C79" t="n">
-        <v>0.8573235754519214</v>
-      </c>
-      <c r="D79" t="n">
-        <v>7.172230378408542e-95</v>
-      </c>
-      <c r="E79" t="n">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>AUC</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>RMS</t>
-        </is>
-      </c>
-      <c r="C80" t="n">
-        <v>0.9463424177436429</v>
-      </c>
-      <c r="D80" t="n">
-        <v>5.086000778195823e-160</v>
-      </c>
-      <c r="E80" t="n">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>AUC</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>tau</t>
-        </is>
-      </c>
-      <c r="C81" t="n">
-        <v>0.0400504529297099</v>
-      </c>
-      <c r="D81" t="n">
-        <v>0.4725043879560751</v>
-      </c>
-      <c r="E81" t="n">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>AUC</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>percentPPI</t>
-        </is>
-      </c>
-      <c r="C82" t="n">
-        <v>-0.2297541061318753</v>
-      </c>
-      <c r="D82" t="n">
-        <v>4.970508345388607e-05</v>
-      </c>
-      <c r="E82" t="n">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>percentPPI</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>reactionTime</t>
-        </is>
-      </c>
-      <c r="C83" t="n">
-        <v>0.02559283584062272</v>
-      </c>
-      <c r="D83" t="n">
-        <v>0.6556459442699272</v>
-      </c>
-      <c r="E83" t="n">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>percentPPI</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>peakTime</t>
-        </is>
-      </c>
-      <c r="C84" t="n">
-        <v>0.02906396405187523</v>
-      </c>
-      <c r="D84" t="n">
-        <v>0.6125492233785037</v>
-      </c>
-      <c r="E84" t="n">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>percentPPI</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>difference</t>
-        </is>
-      </c>
-      <c r="C85" t="n">
-        <v>0.01787973614569829</v>
-      </c>
-      <c r="D85" t="n">
-        <v>0.7554110453567462</v>
-      </c>
-      <c r="E85" t="n">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>percentPPI</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>peakValue</t>
-        </is>
-      </c>
-      <c r="C86" t="n">
-        <v>-0.1844551918620594</v>
-      </c>
-      <c r="D86" t="n">
-        <v>0.001189862936612502</v>
-      </c>
-      <c r="E86" t="n">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>percentPPI</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>PTPA</t>
-        </is>
-      </c>
-      <c r="C87" t="n">
-        <v>-0.1848753154775971</v>
-      </c>
-      <c r="D87" t="n">
-        <v>0.001158883166971444</v>
-      </c>
-      <c r="E87" t="n">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>percentPPI</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>PTTA</t>
-        </is>
-      </c>
-      <c r="C88" t="n">
-        <v>-0.1909312876808557</v>
-      </c>
-      <c r="D88" t="n">
-        <v>0.0007873584754025096</v>
-      </c>
-      <c r="E88" t="n">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>percentPPI</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>RMS</t>
-        </is>
-      </c>
-      <c r="C89" t="n">
-        <v>-0.2101175638047061</v>
-      </c>
-      <c r="D89" t="n">
-        <v>0.0002139714760230587</v>
-      </c>
-      <c r="E89" t="n">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>percentPPI</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>tau</t>
-        </is>
-      </c>
-      <c r="C90" t="n">
-        <v>-0.02491307818380599</v>
-      </c>
-      <c r="D90" t="n">
-        <v>0.6642269514263663</v>
-      </c>
-      <c r="E90" t="n">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>percentPPI</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>AUC</t>
-        </is>
-      </c>
-      <c r="C91" t="n">
-        <v>-0.2297541061318753</v>
-      </c>
-      <c r="D91" t="n">
-        <v>4.970508345388607e-05</v>
-      </c>
-      <c r="E91" t="n">
-        <v>306</v>
+        <v>324</v>
       </c>
     </row>
   </sheetData>

--- a/Tester Results/ALL_VAR_CORRELATIONS.xlsx
+++ b/Tester Results/ALL_VAR_CORRELATIONS.xlsx
@@ -472,10 +472,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-0.02297141498272558</v>
+        <v>-0.03675932451552016</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6803821122099751</v>
+        <v>0.5096816721186384</v>
       </c>
       <c r="E2" t="n">
         <v>324</v>
@@ -493,10 +493,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-0.6776315331173353</v>
+        <v>-0.6685001195759162</v>
       </c>
       <c r="D3" t="n">
-        <v>6.855312705124109e-45</v>
+        <v>2.589872747627608e-43</v>
       </c>
       <c r="E3" t="n">
         <v>324</v>
@@ -514,10 +514,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-0.5337439615856781</v>
+        <v>-0.5366327396638366</v>
       </c>
       <c r="D4" t="n">
-        <v>2.963402089587861e-25</v>
+        <v>1.467262702087708e-25</v>
       </c>
       <c r="E4" t="n">
         <v>324</v>
@@ -535,10 +535,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-0.5331040454649807</v>
+        <v>-0.5358830559112744</v>
       </c>
       <c r="D5" t="n">
-        <v>3.459552704319897e-25</v>
+        <v>1.762040888629613e-25</v>
       </c>
       <c r="E5" t="n">
         <v>324</v>
@@ -556,10 +556,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-0.5331224327538355</v>
+        <v>-0.5368152924094414</v>
       </c>
       <c r="D6" t="n">
-        <v>3.444214456116033e-25</v>
+        <v>1.403191880527584e-25</v>
       </c>
       <c r="E6" t="n">
         <v>324</v>
@@ -577,10 +577,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-0.5323387926957828</v>
+        <v>-0.5373432466316143</v>
       </c>
       <c r="D7" t="n">
-        <v>4.161304519536523e-25</v>
+        <v>1.233022897047101e-25</v>
       </c>
       <c r="E7" t="n">
         <v>324</v>
@@ -598,10 +598,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.1080566870229782</v>
+        <v>0.1360264914830115</v>
       </c>
       <c r="D8" t="n">
-        <v>0.05199244569026731</v>
+        <v>0.01426921990392389</v>
       </c>
       <c r="E8" t="n">
         <v>324</v>
@@ -619,10 +619,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-0.5089064475985986</v>
+        <v>-0.5053471280814221</v>
       </c>
       <c r="D9" t="n">
-        <v>9.535784191705703e-23</v>
+        <v>2.099657985557351e-22</v>
       </c>
       <c r="E9" t="n">
         <v>324</v>
@@ -640,10 +640,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-0.02297141498272558</v>
+        <v>-0.03675932451552016</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6803821122099751</v>
+        <v>0.5096816721186384</v>
       </c>
       <c r="E10" t="n">
         <v>324</v>
@@ -661,10 +661,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.6578081381642109</v>
+        <v>0.6833323757453084</v>
       </c>
       <c r="D11" t="n">
-        <v>1.549782289192476e-41</v>
+        <v>6.638437475166306e-46</v>
       </c>
       <c r="E11" t="n">
         <v>324</v>
@@ -682,10 +682,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.02262607734556411</v>
+        <v>0.02642327408287458</v>
       </c>
       <c r="D12" t="n">
-        <v>0.6849282913932827</v>
+        <v>0.6355972725261866</v>
       </c>
       <c r="E12" t="n">
         <v>324</v>
@@ -703,10 +703,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.01540121695521815</v>
+        <v>0.01831694648481384</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7824199142796232</v>
+        <v>0.7425651519716941</v>
       </c>
       <c r="E13" t="n">
         <v>324</v>
@@ -724,10 +724,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.01430062896809326</v>
+        <v>0.02198114049129878</v>
       </c>
       <c r="D14" t="n">
-        <v>0.7976191583705808</v>
+        <v>0.6934489064461434</v>
       </c>
       <c r="E14" t="n">
         <v>324</v>
@@ -745,10 +745,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.07073731297143351</v>
+        <v>0.07371888182879792</v>
       </c>
       <c r="D15" t="n">
-        <v>0.2041053141454388</v>
+        <v>0.1856316047312557</v>
       </c>
       <c r="E15" t="n">
         <v>324</v>
@@ -766,10 +766,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.1836483991777754</v>
+        <v>0.1604258341398364</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0008963571980330894</v>
+        <v>0.003788208172312706</v>
       </c>
       <c r="E16" t="n">
         <v>324</v>
@@ -787,10 +787,10 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.08553933049464442</v>
+        <v>0.08231772652059781</v>
       </c>
       <c r="D17" t="n">
-        <v>0.1243975007998712</v>
+        <v>0.1392732829440573</v>
       </c>
       <c r="E17" t="n">
         <v>324</v>
@@ -808,10 +808,10 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-0.6776315331173353</v>
+        <v>-0.6685001195759162</v>
       </c>
       <c r="D18" t="n">
-        <v>6.855312705124109e-45</v>
+        <v>2.589872747627608e-43</v>
       </c>
       <c r="E18" t="n">
         <v>324</v>
@@ -829,10 +829,10 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.6578081381642109</v>
+        <v>0.6833323757453084</v>
       </c>
       <c r="D19" t="n">
-        <v>1.549782289192476e-41</v>
+        <v>6.638437475166306e-46</v>
       </c>
       <c r="E19" t="n">
         <v>324</v>
@@ -850,10 +850,10 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.3764176414633426</v>
+        <v>0.3657026322248481</v>
       </c>
       <c r="D20" t="n">
-        <v>2.403940254713601e-12</v>
+        <v>1.090828287991331e-11</v>
       </c>
       <c r="E20" t="n">
         <v>324</v>
@@ -871,10 +871,10 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.3701072988952363</v>
+        <v>0.3586161081252614</v>
       </c>
       <c r="D21" t="n">
-        <v>5.897687301885202e-12</v>
+        <v>2.877241276025363e-11</v>
       </c>
       <c r="E21" t="n">
         <v>324</v>
@@ -892,10 +892,10 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.3728771024422141</v>
+        <v>0.3648335589708881</v>
       </c>
       <c r="D22" t="n">
-        <v>3.986995035304977e-12</v>
+        <v>1.23019286481984e-11</v>
       </c>
       <c r="E22" t="n">
         <v>324</v>
@@ -913,10 +913,10 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.4202224533923655</v>
+        <v>0.4101406426089916</v>
       </c>
       <c r="D23" t="n">
-        <v>2.70778911614327e-15</v>
+        <v>1.412874734407792e-14</v>
       </c>
       <c r="E23" t="n">
         <v>324</v>
@@ -934,10 +934,10 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.07182096164655703</v>
+        <v>0.04391166978725793</v>
       </c>
       <c r="D24" t="n">
-        <v>0.1972428607834439</v>
+        <v>0.4308515807827019</v>
       </c>
       <c r="E24" t="n">
         <v>324</v>
@@ -955,10 +955,10 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.4214586104568563</v>
+        <v>0.4027230895766142</v>
       </c>
       <c r="D25" t="n">
-        <v>2.202791769937914e-15</v>
+        <v>4.600172341288581e-14</v>
       </c>
       <c r="E25" t="n">
         <v>324</v>
@@ -976,10 +976,10 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>-0.5337439615856781</v>
+        <v>-0.5366327396638366</v>
       </c>
       <c r="D26" t="n">
-        <v>2.963402089587861e-25</v>
+        <v>1.467262702087708e-25</v>
       </c>
       <c r="E26" t="n">
         <v>324</v>
@@ -997,10 +997,10 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.02262607734556411</v>
+        <v>0.02642327408287458</v>
       </c>
       <c r="D27" t="n">
-        <v>0.6849282913932827</v>
+        <v>0.6355972725261866</v>
       </c>
       <c r="E27" t="n">
         <v>324</v>
@@ -1018,10 +1018,10 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.3764176414633427</v>
+        <v>0.3657026322248481</v>
       </c>
       <c r="D28" t="n">
-        <v>2.403940254713601e-12</v>
+        <v>1.090828287991331e-11</v>
       </c>
       <c r="E28" t="n">
         <v>324</v>
@@ -1039,7 +1039,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.9996726722655823</v>
+        <v>0.9996349206433556</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -1060,7 +1060,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.9955469848050578</v>
+        <v>0.9962047267192415</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -1081,10 +1081,10 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.9757603753257609</v>
+        <v>0.9744697617510893</v>
       </c>
       <c r="D31" t="n">
-        <v>1.514085760529358e-214</v>
+        <v>5.783590831327313e-211</v>
       </c>
       <c r="E31" t="n">
         <v>324</v>
@@ -1102,10 +1102,10 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>-0.3337169943560488</v>
+        <v>-0.3608237401916921</v>
       </c>
       <c r="D32" t="n">
-        <v>7.219336921500617e-10</v>
+        <v>2.132392927712678e-11</v>
       </c>
       <c r="E32" t="n">
         <v>324</v>
@@ -1123,10 +1123,10 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.8695765689561794</v>
+        <v>0.8666803560408877</v>
       </c>
       <c r="D33" t="n">
-        <v>1.073631415191734e-100</v>
+        <v>2.881333234564207e-99</v>
       </c>
       <c r="E33" t="n">
         <v>324</v>
@@ -1144,10 +1144,10 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>-0.5331040454649807</v>
+        <v>-0.5358830559112745</v>
       </c>
       <c r="D34" t="n">
-        <v>3.459552704319897e-25</v>
+        <v>1.762040888629575e-25</v>
       </c>
       <c r="E34" t="n">
         <v>324</v>
@@ -1165,10 +1165,10 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.01540121695521814</v>
+        <v>0.01831694648481384</v>
       </c>
       <c r="D35" t="n">
-        <v>0.7824199142796232</v>
+        <v>0.7425651519716943</v>
       </c>
       <c r="E35" t="n">
         <v>324</v>
@@ -1186,10 +1186,10 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.3701072988952363</v>
+        <v>0.3586161081252614</v>
       </c>
       <c r="D36" t="n">
-        <v>5.897687301885202e-12</v>
+        <v>2.877241276025363e-11</v>
       </c>
       <c r="E36" t="n">
         <v>324</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.9996726722655822</v>
+        <v>0.9996349206433556</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -1228,7 +1228,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.995154134236457</v>
+        <v>0.9957962628292348</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -1249,10 +1249,10 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.9750845307531208</v>
+        <v>0.9735343395404321</v>
       </c>
       <c r="D39" t="n">
-        <v>1.200547734868752e-212</v>
+        <v>1.760212437546593e-208</v>
       </c>
       <c r="E39" t="n">
         <v>324</v>
@@ -1270,10 +1270,10 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>-0.3346757463155444</v>
+        <v>-0.3619146609637326</v>
       </c>
       <c r="D40" t="n">
-        <v>6.41020982821592e-10</v>
+        <v>1.837394629167563e-11</v>
       </c>
       <c r="E40" t="n">
         <v>324</v>
@@ -1291,10 +1291,10 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.8687179023993564</v>
+        <v>0.8656005042472067</v>
       </c>
       <c r="D41" t="n">
-        <v>2.870723040422579e-100</v>
+        <v>9.63235938691313e-99</v>
       </c>
       <c r="E41" t="n">
         <v>324</v>
@@ -1312,10 +1312,10 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>-0.5331224327538355</v>
+        <v>-0.5368152924094414</v>
       </c>
       <c r="D42" t="n">
-        <v>3.444214456116033e-25</v>
+        <v>1.403191880527584e-25</v>
       </c>
       <c r="E42" t="n">
         <v>324</v>
@@ -1333,10 +1333,10 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0.01430062896809326</v>
+        <v>0.02198114049129878</v>
       </c>
       <c r="D43" t="n">
-        <v>0.7976191583705808</v>
+        <v>0.6934489064461434</v>
       </c>
       <c r="E43" t="n">
         <v>324</v>
@@ -1354,10 +1354,10 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0.3728771024422141</v>
+        <v>0.3648335589708881</v>
       </c>
       <c r="D44" t="n">
-        <v>3.986995035304977e-12</v>
+        <v>1.23019286481984e-11</v>
       </c>
       <c r="E44" t="n">
         <v>324</v>
@@ -1375,7 +1375,7 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0.9955469848050579</v>
+        <v>0.9962047267192415</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0.9951541342364569</v>
+        <v>0.9957962628292349</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -1417,10 +1417,10 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0.9680543727582323</v>
+        <v>0.9675629828423052</v>
       </c>
       <c r="D47" t="n">
-        <v>1.628905297877852e-195</v>
+        <v>1.82811085533007e-194</v>
       </c>
       <c r="E47" t="n">
         <v>324</v>
@@ -1438,10 +1438,10 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>-0.3412626484072999</v>
+        <v>-0.3697858819246019</v>
       </c>
       <c r="D48" t="n">
-        <v>2.801270356916734e-10</v>
+        <v>6.170330193987456e-12</v>
       </c>
       <c r="E48" t="n">
         <v>324</v>
@@ -1459,10 +1459,10 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0.8573235754519213</v>
+        <v>0.8548426361983144</v>
       </c>
       <c r="D49" t="n">
-        <v>7.172230378409359e-95</v>
+        <v>9.30733276197629e-94</v>
       </c>
       <c r="E49" t="n">
         <v>324</v>
@@ -1480,10 +1480,10 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>-0.5323387926957828</v>
+        <v>-0.5373432466316141</v>
       </c>
       <c r="D50" t="n">
-        <v>4.161304519536523e-25</v>
+        <v>1.233022897047154e-25</v>
       </c>
       <c r="E50" t="n">
         <v>324</v>
@@ -1501,10 +1501,10 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0.07073731297143351</v>
+        <v>0.07371888182879793</v>
       </c>
       <c r="D51" t="n">
-        <v>0.2041053141454388</v>
+        <v>0.1856316047312556</v>
       </c>
       <c r="E51" t="n">
         <v>324</v>
@@ -1522,10 +1522,10 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>0.4202224533923655</v>
+        <v>0.4101406426089916</v>
       </c>
       <c r="D52" t="n">
-        <v>2.70778911614327e-15</v>
+        <v>1.412874734407832e-14</v>
       </c>
       <c r="E52" t="n">
         <v>324</v>
@@ -1543,10 +1543,10 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>0.9757603753257609</v>
+        <v>0.9744697617510895</v>
       </c>
       <c r="D53" t="n">
-        <v>1.514085760529358e-214</v>
+        <v>5.783590831323696e-211</v>
       </c>
       <c r="E53" t="n">
         <v>324</v>
@@ -1564,10 +1564,10 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>0.9750845307531208</v>
+        <v>0.9735343395404321</v>
       </c>
       <c r="D54" t="n">
-        <v>1.200547734868752e-212</v>
+        <v>1.760212437546593e-208</v>
       </c>
       <c r="E54" t="n">
         <v>324</v>
@@ -1585,10 +1585,10 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>0.9680543727582323</v>
+        <v>0.9675629828423052</v>
       </c>
       <c r="D55" t="n">
-        <v>1.628905297877852e-195</v>
+        <v>1.82811085533007e-194</v>
       </c>
       <c r="E55" t="n">
         <v>324</v>
@@ -1606,10 +1606,10 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>-0.1981888453492212</v>
+        <v>-0.2230725522077694</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0003315938160040955</v>
+        <v>5.101072185643623e-05</v>
       </c>
       <c r="E56" t="n">
         <v>324</v>
@@ -1627,10 +1627,10 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>0.9463424177436428</v>
+        <v>0.9462434523640613</v>
       </c>
       <c r="D57" t="n">
-        <v>5.086000778197558e-160</v>
+        <v>6.787495552841697e-160</v>
       </c>
       <c r="E57" t="n">
         <v>324</v>
@@ -1648,10 +1648,10 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>0.1080566870229782</v>
+        <v>0.1360264914830115</v>
       </c>
       <c r="D58" t="n">
-        <v>0.05199244569026731</v>
+        <v>0.01426921990392392</v>
       </c>
       <c r="E58" t="n">
         <v>324</v>
@@ -1669,10 +1669,10 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>0.1836483991777754</v>
+        <v>0.1604258341398364</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0008963571980330894</v>
+        <v>0.003788208172312706</v>
       </c>
       <c r="E59" t="n">
         <v>324</v>
@@ -1690,10 +1690,10 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>0.07182096164655705</v>
+        <v>0.04391166978725793</v>
       </c>
       <c r="D60" t="n">
-        <v>0.197242860783444</v>
+        <v>0.4308515807827019</v>
       </c>
       <c r="E60" t="n">
         <v>324</v>
@@ -1711,10 +1711,10 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>-0.3337169943560488</v>
+        <v>-0.3608237401916921</v>
       </c>
       <c r="D61" t="n">
-        <v>7.219336921500617e-10</v>
+        <v>2.132392927712678e-11</v>
       </c>
       <c r="E61" t="n">
         <v>324</v>
@@ -1732,10 +1732,10 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>-0.3346757463155444</v>
+        <v>-0.3619146609637327</v>
       </c>
       <c r="D62" t="n">
-        <v>6.41020982821592e-10</v>
+        <v>1.83739462916755e-11</v>
       </c>
       <c r="E62" t="n">
         <v>324</v>
@@ -1753,10 +1753,10 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>-0.3412626484072999</v>
+        <v>-0.3697858819246019</v>
       </c>
       <c r="D63" t="n">
-        <v>2.801270356916734e-10</v>
+        <v>6.170330193987365e-12</v>
       </c>
       <c r="E63" t="n">
         <v>324</v>
@@ -1774,10 +1774,10 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>-0.1981888453492212</v>
+        <v>-0.2230725522077694</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0003315938160040955</v>
+        <v>5.101072185643623e-05</v>
       </c>
       <c r="E64" t="n">
         <v>324</v>
@@ -1795,10 +1795,10 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>0.0400504529297099</v>
+        <v>0.01861960078678345</v>
       </c>
       <c r="D65" t="n">
-        <v>0.4725043879560751</v>
+        <v>0.7384652574683481</v>
       </c>
       <c r="E65" t="n">
         <v>324</v>
@@ -1816,10 +1816,10 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>-0.5089064475985986</v>
+        <v>-0.5053471280814221</v>
       </c>
       <c r="D66" t="n">
-        <v>9.535784191705703e-23</v>
+        <v>2.099657985557351e-22</v>
       </c>
       <c r="E66" t="n">
         <v>324</v>
@@ -1837,10 +1837,10 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>0.08553933049464441</v>
+        <v>0.08231772652059781</v>
       </c>
       <c r="D67" t="n">
-        <v>0.1243975007998714</v>
+        <v>0.1392732829440573</v>
       </c>
       <c r="E67" t="n">
         <v>324</v>
@@ -1858,10 +1858,10 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>0.4214586104568562</v>
+        <v>0.4027230895766142</v>
       </c>
       <c r="D68" t="n">
-        <v>2.202791769937954e-15</v>
+        <v>4.600172341288581e-14</v>
       </c>
       <c r="E68" t="n">
         <v>324</v>
@@ -1879,10 +1879,10 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>0.8695765689561793</v>
+        <v>0.8666803560408876</v>
       </c>
       <c r="D69" t="n">
-        <v>1.073631415191857e-100</v>
+        <v>2.881333234564617e-99</v>
       </c>
       <c r="E69" t="n">
         <v>324</v>
@@ -1900,10 +1900,10 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>0.8687179023993563</v>
+        <v>0.8656005042472068</v>
       </c>
       <c r="D70" t="n">
-        <v>2.870723040423151e-100</v>
+        <v>9.632359386911759e-99</v>
       </c>
       <c r="E70" t="n">
         <v>324</v>
@@ -1921,10 +1921,10 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>0.8573235754519214</v>
+        <v>0.8548426361983144</v>
       </c>
       <c r="D71" t="n">
-        <v>7.172230378408542e-95</v>
+        <v>9.30733276197629e-94</v>
       </c>
       <c r="E71" t="n">
         <v>324</v>
@@ -1942,10 +1942,10 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>0.9463424177436429</v>
+        <v>0.9462434523640613</v>
       </c>
       <c r="D72" t="n">
-        <v>5.086000778195823e-160</v>
+        <v>6.787495552841697e-160</v>
       </c>
       <c r="E72" t="n">
         <v>324</v>
@@ -1963,10 +1963,10 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>0.0400504529297099</v>
+        <v>0.01861960078678345</v>
       </c>
       <c r="D73" t="n">
-        <v>0.4725043879560751</v>
+        <v>0.7384652574683481</v>
       </c>
       <c r="E73" t="n">
         <v>324</v>
